--- a/pfl_app/media/all_province_descriptions.xlsx
+++ b/pfl_app/media/all_province_descriptions.xlsx
@@ -1,447 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-  </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-  </fills>
-  <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-  </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-  </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
-</styleSheet>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B84"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Province Name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Province Summary</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Phú Yên</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Phú Yên có hai mùa rõ rệt: mùa mưa (tháng 9-12) và mùa nắng (tháng 1-8). Du khách nên đến Phú Yên vào mùa nắng để thuận tiện cho chuyến tham quan. Mùa hè là thời điểm lý tưởng để đắm mình vào biển xanh và săn ảnh.
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
+  <si>
+    <t>Province Name</t>
+  </si>
+  <si>
+    <t>Province Summary</t>
+  </si>
+  <si>
+    <t>Phú Yên</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phú Yên có hai mùa rõ rệt: mùa mưa (tháng 9-12) và mùa nắng (tháng 1-8). Du khách nên đến Phú Yên vào mùa nắng để thuận tiện cho chuyến tham quan. Mùa hè là thời điểm lý tưởng để đắm mình vào biển xanh và săn ảnh.
 Phú Yên cách Hà Nội 1.200 km và TP HCM 500 km, có nhiều lựa chọn di chuyển như máy bay, tàu hỏa, ôtô. Giá vé máy bay từ 1,5 triệu đến 5 triệu đồng, tàu hỏa từ 400.000 đến 1.000.000 đồng, ôtô giường nằm 540.000 đồng.
 Phú Yên và Tuy Hòa có ít resort và khách sạn cao cấp. Giá phòng trung bình trong thành phố là 150.000 - 300.000 đồng/đêm. Các khu nghỉ sang trọng như Rosa Alba Resort và Sala Grand Tuy Hoa Hotel có giá từ 700.000 - 5.000.000 đồng/đêm.
 "Chơi đâu" là một trong những điểm du lịch nổi tiếng của Phú Yên, Việt Nam. Bạn có thể tham quan các điểm du lịch trong 4 ngày, hoặc 2 ngày nếu không dư dả thời gian. Dưới đây là một số điểm du lịch nổi bật:
@@ -475,18 +59,12 @@
 - Bánh xèo tôm nhảy: đúc bằng khuôn nhỏ, ăn kèm bánh tráng và rau
 - Hải sản: quán vỉa hè ở 43 Trần Quý Cáp bán đa dạng hải sản như sò lông nướng mỡ hẹ, ốc hương nấu lá dứa, sò huyết, sò điệp, ốc móng tay, ốc bươu, ốc hút...
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Cao Bằng</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cao Bằng đẹp vào các mùa sau:
+  </si>
+  <si>
+    <t>Cao Bằng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cao Bằng đẹp vào các mùa sau:
 - Mùa đẹp nhất: tháng 8-9, thác Bản Giốc đổ nước nhiều và trong xanh, ruộng bậc thang chín vàng.
 - Mùa mưa: tháng 6-9, nước tuôn trào, tung bọt trắng xóa.
 - Mùa khô: tháng 10-5, trời lạnh, nước chảy êm đềm, trong xanh.
@@ -521,18 +99,12 @@
 - Rau dạ hiến (rau bò khai)
 - Hạt dẻ Trùng Khánh
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Bắc Ninh</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bắc Ninh cách Hà Nội khoảng 40 km, mất khoảng một tiếng di chuyển. Đây là điểm đến lý tưởng cho du lịch văn hóa cuối tuần. Người ở xa có thể kết hợp đến Hà Nội và Bắc Ninh trong cùng một chuyến. Phương tiện di chuyển từ Hà Nội khá thuận tiện.
+  </si>
+  <si>
+    <t>Bắc Ninh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bắc Ninh cách Hà Nội khoảng 40 km, mất khoảng một tiếng di chuyển. Đây là điểm đến lý tưởng cho du lịch văn hóa cuối tuần. Người ở xa có thể kết hợp đến Hà Nội và Bắc Ninh trong cùng một chuyến. Phương tiện di chuyển từ Hà Nội khá thuận tiện.
 Thời điểm đến Bắc Ninh phù hợp là:
 - Tháng 1-3: Lễ hội chùa Dâu, hội Lim, đền Đô, khám phá văn hóa và phong tục tập quán.
 - Cuối năm: Cánh đồng hoa cải bên sông Đuống nở vàng rực, thích hợp chụp ảnh.
@@ -548,18 +120,12 @@
 - Khu di tích Lệ Chi Viên: Là một khu di tích lịch sử văn hóa cấp tỉnh với lịch sử và truyền thuyết phong phú.
 Ẩm thực Kinh Bắc nổi bật với các món bánh đặc trưng như bánh phu thê, bánh tẻ làng Chờ, nem Bùi và bánh khúc làng Diềm. Mỗi món bánh đều có hương vị độc đáo và được làm từ nguyên liệu địa phương, như gạo nếp, đỗ xanh, thịt lợn và rau khúc.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Vườn quốc gia Cúc Phương</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Vườn quốc gia Cúc Phương có khí hậu nhiệt đới gió mùa, đặc trưng của miền Bắc. Nhiệt độ trung bình năm là 24,7 độ C. Địa hình đa dạng với rừng nguyên sinh, khiến nhiệt độ thấp hơn các khu vực lân cận. Du khách có thể đến vào nhiều thời điểm trong năm.
+  </si>
+  <si>
+    <t>Vườn quốc gia Cúc Phương</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vườn quốc gia Cúc Phương có khí hậu nhiệt đới gió mùa, đặc trưng của miền Bắc. Nhiệt độ trung bình năm là 24,7 độ C. Địa hình đa dạng với rừng nguyên sinh, khiến nhiệt độ thấp hơn các khu vực lân cận. Du khách có thể đến vào nhiều thời điểm trong năm.
 Vườn quốc gia Cúc Phương cách Hà Nội 130 km, đường đi thuận tiện. Du khách có thể di chuyển theo CT01, QL1A, DT477 hoặc đường Hồ Chí Minh. Ngoài ra, có tuyến xe khách từ bến Giáp Bát và Mỹ Đình đến Cúc Phương, giúp du khách dễ dàng di chuyển.
 Vườn quốc gia Cúc Phương có nhiều lựa chọn lưu trú cho du khách, bao gồm:
 - Phòng lưu trú tại cổng vườn, hồ Mạc và trung tâm với giá từ 350.000 đồng đến 1 triệu đồng một đêm.
@@ -591,18 +157,12 @@
 - Đặt dịch vụ lưu trú sớm vào mùa bướm trắng tháng 4
 - Mang thiết bị cá nhân như ống nhòm, còi, đèn pin.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Bình Thuận</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bình Thuận không có sân bay, du khách có thể di chuyển bằng:
+  </si>
+  <si>
+    <t>Bình Thuận</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bình Thuận không có sân bay, du khách có thể di chuyển bằng:
 - Bay tới TP HCM và đi đường bộ theo cao tốc Dầu Giây - Phan Thiết (2,5 tiếng)
 - Hạ cánh ở sân bay Cam Ranh và đi cao tốc Vĩnh Hảo - Phan Thiết
 - Xe cá nhân hoặc xe khách từ TP HCM và các tỉnh phía Nam
@@ -624,18 +184,12 @@
 - Gỏi ốc giác: Món ăn được chế biến từ thịt ốc giác, thịt heo, rau, đậu phộng rang và hành phi.
 - Dông cát: Là loài bò sát sống trong hang và sáng ra đồi cát tìm ăn. Thịt dông trắng, ngọt, bùi và mềm, được chế biến thành nhiều món ăn như nướng, hấp, chả, cháo...
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Phan Thiết</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Phan Thiết có khí hậu khô hạn nhiệt đới với nhiều nắng và gió. Thời gian mưa không dài và ít chịu ảnh hưởng của bão. Thời điểm lý tưởng để du lịch Phan Thiết là tháng 6-7 hoặc từ tháng 12 đến tháng 2, khi thời tiết ổn định và đẹp.
+  </si>
+  <si>
+    <t>Phan Thiết</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phan Thiết có khí hậu khô hạn nhiệt đới với nhiều nắng và gió. Thời gian mưa không dài và ít chịu ảnh hưởng của bão. Thời điểm lý tưởng để du lịch Phan Thiết là tháng 6-7 hoặc từ tháng 12 đến tháng 2, khi thời tiết ổn định và đẹp.
 Di chuyển đến Phan Thiết có thể thực hiện bằng các phương tiện như xe khách, ôtô tự lái, tàu hỏa. Từ TP HCM mất khoảng 2 tiếng trên cao tốc. Giá vé máy bay từ Hà Nội đến TP HCM khoảng 2-4 triệu đồng. Giá vé tàu từ Sài Gòn đến Phan Thiết 250.000-350.000 đồng. Xe khách từ TP HCM đến Phan Thiết giá khoảng 200.000-450.000 đồng.
 Phường Mũi Né là nơi tập trung nhiều khách sạn, resort nghỉ dưỡng sang trọng ở Phan Thiết. Các khu nghỉ dưỡng ở đây cung cấp đầy đủ dịch vụ thể thao biển, nhà hàng, bể bơi, quán bar và spa. Một số khách sạn nổi tiếng ở đây bao gồm The Anam Mũi Né và Anantara Mũi Né Resort.
 "Chơi đâu?" là một bản đồ du lịch của Phan Thiết, chia thành 4 khu vực chính: trung tâm thành phố, Mũi Né, Mũi Kê Gà và Hòn Rơm. Dưới đây là một số điểm tham quan nổi tiếng tại Phan Thiết:
@@ -656,18 +210,12 @@
 - Tháng 7-8: Hiện tượng thủy triều đỏ, nước biển đục không thích hợp tắm.
 - Đặt phòng trước để tránh hết phòng, đặc biệt vào mùa cao điểm.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Sa Pa</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sa Pa có khí hậu mát mẻ quanh năm, phù hợp cho du lịch. Thời điểm lý tưởng là từ tháng 2 đến tháng 5 (mùa xuân), tháng 9 đến tháng 11 (mùa thu) và tháng 12 đến tháng 2 (mùa đông). Tránh mùa mưa bão từ tháng 6 đến tháng 8.
+  </si>
+  <si>
+    <t>Sa Pa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sa Pa có khí hậu mát mẻ quanh năm, phù hợp cho du lịch. Thời điểm lý tưởng là từ tháng 2 đến tháng 5 (mùa xuân), tháng 9 đến tháng 11 (mùa thu) và tháng 12 đến tháng 2 (mùa đông). Tránh mùa mưa bão từ tháng 6 đến tháng 8.
 Có nhiều cách di chuyển từ Hà Nội đến Sa Pa:
 - Xe limousine hoặc xe khách: 5-6 tiếng, giá 230.000 - 350.000 đồng/người.
 - Tàu hỏa: 7-9 tiếng, giá 160.000 - 800.000 đồng/người.
@@ -681,18 +229,12 @@
 Mỗi điểm đến đều mang đến trải nghiệm độc đáo và thú vị.
 Đến Sa Pa, bạn nên thử đồ nướng với giá từ 20.000 - 100.000 đồng mỗi loại. Ngoài ra, có thể thưởng thức cá hồi, cá tầm nấu lẩu hoặc ăn sống. Một số quán ăn đặc sản nổi tiếng bao gồm thắng cố A Quỳnh và Hotpot Center.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Gia Lai</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Khách sạn ở Gia Lai đa dạng, tập trung ở TP Pleiku. Các khách sạn cao cấp có giá từ 700.000 đến 1 triệu đồng một đêm. Khách sạn trung bình có giá từ 300.000 đến 500.000 đồng một đêm. Homestay có giá trung bình 300.000 đồng một phòng.
+  </si>
+  <si>
+    <t>Gia Lai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khách sạn ở Gia Lai đa dạng, tập trung ở TP Pleiku. Các khách sạn cao cấp có giá từ 700.000 đến 1 triệu đồng một đêm. Khách sạn trung bình có giá từ 300.000 đến 500.000 đồng một đêm. Homestay có giá trung bình 300.000 đồng một phòng.
 Sân bay Pleiku cách trung tâm thành phố khoảng 7 km, thời gian di chuyển bằng ôtô 15 phút. Có các chuyến bay từ Hà Nội, TP HCM và Đà Nẵng tới Pleiku. Giá vé khứ hồi từ 1,5 triệu đến 3,5 triệu đồng. Có xe khách và xe buýt trong tỉnh.
 TP Pleiku là một điểm đến nổi tiếng với nhiều địa điểm du lịch hấp dẫn. Một số điểm đến nổi bật bao gồm:
 - Hồ T'Nưng (Biển Hồ): một hồ nước ngọt nằm trong quần thể khu du lịch sinh thái Biển Hồ - Chư Đăng Ya.
@@ -716,18 +258,12 @@
 - Cà phê Pleiku: Cà phê thượng hạng được trồng tại Pleiku, có thể mua làm quà hoặc thưởng thức tại các quán cà phê nổi tiếng.
 Sở Du lịch gợi ý các nhà hàng tại TP Pleiku như: Tre Xanh, Khách sạn Gia Lai Pleiku, Ngọc Lâm, Thiên Thanh và Lâm Viên. Tuy nhiên, sân bay Pleiku nhỏ nên các chuyến bay có thể bị hoãn hoặc hủy tùy thuộc điều kiện khai thác.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Quảng Bình</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Khí hậu Quảng Bình chia làm hai mùa rõ rệt: mùa mưa (tháng 9 - 3) và mùa khô (tháng 4 - 8). Thời điểm đẹp nhất để đến Quảng Bình là từ cuối tháng 3 đến đầu tháng 9. Mùa mưa có nét thú vị riêng cho những người ưa khám phá.
+  </si>
+  <si>
+    <t>Quảng Bình</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khí hậu Quảng Bình chia làm hai mùa rõ rệt: mùa mưa (tháng 9 - 3) và mùa khô (tháng 4 - 8). Thời điểm đẹp nhất để đến Quảng Bình là từ cuối tháng 3 đến đầu tháng 9. Mùa mưa có nét thú vị riêng cho những người ưa khám phá.
 TP Đồng Hới cách Hà Nội 500 km, cách TP HCM 1.000 km. Du khách có thể di chuyển bằng máy bay, tàu, xe khách hoặc ôtô cá nhân. Giá vé và thời gian di chuyển tùy thuộc vào phương tiện và tuyến đường.
 Dịch vụ lưu trú ở Quảng Bình đa dạng từ khách sạn, nhà nghỉ, homestay, farmstay, cắm trại. Tại Đồng Hới, có nhiều lựa chọn từ 600.000 đến 2 triệu đồng mỗi đêm. Tại các huyện Lệ Thủy, Quảng Trạch, Bố Trạch, Minh Hóa, giá từ 400.000 đến 2 triệu đồng mỗi đêm.
 Vườn Quốc gia Phong Nha - Kẻ Bàng là một điểm tham quan và vui chơi nổi tiếng ở Quảng Bình, được UNESCO công nhận là Di sản thiên nhiên thế giới. Nơi đây có hơn 400 hang động với tổng chiều dài 220 km, ba sông chính là sông Chày, sông Son và sông Troóc.
@@ -772,18 +308,12 @@
 - Không tự ý trải nghiệm đường rừng núi nguy hiểm.
 - Chọn điểm đến theo từng khu vực để hạn chế di chuyển dài.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Lai Châu</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Từ Hà Nội đến Lai Châu, du khách di chuyển theo cao tốc Hà Nội - Lào Cai và QL4D, mất khoảng 8 tiếng. Không có sân bay ở Lai Châu, du khách đến từ phía Nam đến sân bay Điện Biên (190 km) và di chuyển đường bộ 4 tiếng.
+  </si>
+  <si>
+    <t>Lai Châu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Từ Hà Nội đến Lai Châu, du khách di chuyển theo cao tốc Hà Nội - Lào Cai và QL4D, mất khoảng 8 tiếng. Không có sân bay ở Lai Châu, du khách đến từ phía Nam đến sân bay Điện Biên (190 km) và di chuyển đường bộ 4 tiếng.
 Tại Lai Châu, có nhiều lựa chọn lưu trú với giá đa dạng. Tại trung tâm thành phố, khách sạn như Hoàng Nhâm Luxury Hotel và Mường Thanh Lai Chau Hotel có giá từ 800.000 - 1,2 triệu đồng. Homestay tại Sin Suối Hồ có giá từ 300.000 - 800.000 đồng một đêm.
 Nội dung trên giới thiệu về các điểm du lịch tại tỉnh Lai Châu, bao gồm:
 - Đèo Ô Quy Hồ: Một trong tứ đại đỉnh đèo Việt Nam, cao 2.350 m, với khí hậu và cảnh quan đa dạng.
@@ -804,18 +334,12 @@
 - Nộm rau dớn: vị ngọt mềm, giòn, chua chua.
 Hoa đỗ quyên trên đỉnh Pu Ta Leng nở đẹp vào mùa xuân, nhưng chỉ trong 2-3 tuần. Đây là thời gian ngắn để chiêm ngưỡng vẻ đẹp của hoa này.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Điện Biên</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sân bay Điện Biên đã mở cửa trở lại vào ngày 2/12/2023. Có hai đường bay thẳng từ Hà Nội và TP HCM đến Điện Biên. Đường bộ từ Hà Nội đến Điện Biên dài 450 km, mất khoảng 10 tiếng. Xe khách chạy tuyến Hà Nội - Điện Biên với giá vé từ 300.000 đến 350.000 đồng.
+  </si>
+  <si>
+    <t>Điện Biên</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sân bay Điện Biên đã mở cửa trở lại vào ngày 2/12/2023. Có hai đường bay thẳng từ Hà Nội và TP HCM đến Điện Biên. Đường bộ từ Hà Nội đến Điện Biên dài 450 km, mất khoảng 10 tiếng. Xe khách chạy tuyến Hà Nội - Điện Biên với giá vé từ 300.000 đến 350.000 đồng.
 Khách sạn ở Điện Biên tập trung ở thành phố Điện Biên Phủ, đa dạng loại phòng từ nhà nghỉ, homestay đến khách sạn 3-4 sao. Giá phòng từ 150.000 đến 1,2 triệu đồng một đêm. Một số gợi ý gồm: Mường Thanh, Him Lam Hotel, homestay Mường Then, Phương Đức.
 Cụm di tích chiến thắng Điện Biên Phủ là một trong những điểm đến lịch sử quan trọng tại tỉnh Điện Biên. Các điểm đến bao gồm:
 - Đồi A1: Một trong những cứ điểm quan trọng của trận đánh, có căn hầm cố thủ và dấu tích hố bộc phá.
@@ -842,18 +366,12 @@
 - Chẩm chéo là gia vị cổ truyền của dân tộc Thái, dùng chấm xôi, món luộc, đồ nướng và rau sống.
 'Lưu ý': Nên tránh đến Điện Biên vào mùa mưa do nguy cơ sạt lở cao.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Cần Giờ</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Để đến Cần Giờ, du khách có thể di chuyển bằng phà hoặc xe buýt. Giá vé qua phà từ 2.000 đồng đến 220.000 đồng tùy thuộc vào phương tiện. Xe buýt tuyến số 75 có giá 30.000 đồng và mất 2 tiếng 10 phút. Đường Rừng Sác là tuyến đường quan trọng ở Cần Giờ.
+  </si>
+  <si>
+    <t>Cần Giờ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Để đến Cần Giờ, du khách có thể di chuyển bằng phà hoặc xe buýt. Giá vé qua phà từ 2.000 đồng đến 220.000 đồng tùy thuộc vào phương tiện. Xe buýt tuyến số 75 có giá 30.000 đồng và mất 2 tiếng 10 phút. Đường Rừng Sác là tuyến đường quan trọng ở Cần Giờ.
 Cần Giờ phù hợp cho chuyến đi một ngày từ TP HCM. Tuy nhiên, có thể lưu trú tại khu nghỉ Hòn Ngọc Phương Nam và Cần Giờ Resort (600.000 - 900.000 đồng/đêm) hoặc các homestay và khu cắm trại (300.000 - 600.000 đồng/đêm).
 Tham quan Cần Giờ là một trải nghiệm du lịch thú vị với nhiều điểm khám phá. Khu du lịch sinh thái Vàm Sát là điểm đến nổi bật với nhiều trải nghiệm như tham quan sân chim, đầm dơi, đảo khỉ, câu cá, câu cua biển và câu cá sấu.
 Chợ Hàng Dương được coi là "thiên đường ăn uống" với nhiều món hải sản tươi và đã chế biến. Du khách có thể chọn mua hải sản tươi và nhờ người bán chế biến tại chỗ hoặc chọn mua các món đã chế biến sẵn với chi phí vài chục nghìn đồng.
@@ -862,18 +380,12 @@
 - Giữ vệ sinh chung, không vứt rác.
 - Khi tham quan, giữ cẩn thận máy ảnh, điện thoại, mũ, kính để tránh bị khỉ giật.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Ba Vì</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ba Vì đẹp nhất từ tháng 4 đến tháng 10 khi nắng hè oi bức, trở thành điểm "trốn nóng" lý tưởng. Từ tháng 10 đến tháng 11, mùa hoa dã quỳ nở rộ dọc những con đường, tạo nên một khung cảnh tuyệt đẹp và lãng mạn.
+  </si>
+  <si>
+    <t>Ba Vì</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ba Vì đẹp nhất từ tháng 4 đến tháng 10 khi nắng hè oi bức, trở thành điểm "trốn nóng" lý tưởng. Từ tháng 10 đến tháng 11, mùa hoa dã quỳ nở rộ dọc những con đường, tạo nên một khung cảnh tuyệt đẹp và lãng mạn.
 Du khách có thể di chuyển đến Thiên Sơn Suối Ngà bằng xe riêng hoặc xe buýt. Xe riêng chạy thẳng Đại lộ Thăng Long, thời gian di chuyển khoảng một tiếng. Xe buýt có các tuyến 74, 71 và 110, thời gian di chuyển cũng khoảng một tiếng.
 Vườn quốc gia Ba Vì là "lá phổi xanh" phía Tây thủ đô Hà Nội, với diện tích gần 11.000 ha. Khu vực này có nhiều địa điểm tham quan như nhà thờ cổ bỏ hoang, phủ kín rêu phong, nhà kính xương rồng, và nhiều khu nghỉ dưỡng, biệt thự Pháp bị tàn phá theo thời gian. Du khách có thể tham quan các địa điểm như:
 - Khu dinh đại tá ở cốt 600
@@ -899,18 +411,12 @@
 Ăn gì ở Ba Vì? Thịt dê Ba Vì ít mỡ, ngọt và có thể chế biến thành nhiều món. Gà đồi ở đây cho thịt nạc và da dai. Bánh tẻ làng Phú Nhi là đặc sản với phần bánh dẻo mịn và nhân đầy ắp thịt. Đặc sản từ sữa cũng phổ biến ở đây.
 Dịch vụ lưu trú tại Ba Vì khá phát triển, với nhiều lựa chọn từ bình dân đến cao cấp. Giá lưu trú dao động từ 400.000 đồng đến 4.000.000 đồng một đêm, tùy thuộc vào loại hình lưu trú và vị trí. Có nhiều khu du lịch sinh thái và vườn quốc gia cung cấp dịch vụ lưu trú.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Huế</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mùa du lịch Huế từ tháng 11 đến tháng 4, đẹp nhất là 3-4 tháng đầu năm. Thời điểm đẹp nhất là tháng 6-8, mặt trời đẹp nhất, nước biển xanh nhất. Mùa ít mưa từ tháng 3 đến tháng 8, còn lại là mùa mưa và mùa bão.
+  </si>
+  <si>
+    <t>Huế</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mùa du lịch Huế từ tháng 11 đến tháng 4, đẹp nhất là 3-4 tháng đầu năm. Thời điểm đẹp nhất là tháng 6-8, mặt trời đẹp nhất, nước biển xanh nhất. Mùa ít mưa từ tháng 3 đến tháng 8, còn lại là mùa mưa và mùa bão.
 Di chuyển đến Huế có nhiều lựa chọn:
 - Máy bay: 1 tiếng 15 phút - 1 tiếng 30 phút, giá vé 1.600.000 - 1.300.000 đồng.
 - Tàu hỏa: 400.000 - 900.000 đồng, tùy loại ghế và điều hòa.
@@ -949,18 +455,12 @@
 - Các quán ăn nằm trong góc, hẻm với biển hiệu cũ, mộc mạc
 Để tìm quán ăn chuẩn vị người Huế, bạn nên tìm những nơi có tên quán bắt đầu bằng "Mụ", "Mệ", "O", "Bé" và chủ quán càng già bán đồ ăn càng ngon.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Cần Thơ</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cần Thơ có thời tiết dễ chịu quanh năm, dù có mùa mưa và mùa khô rõ rệt. Thời gian lý tưởng để du lịch Cần Thơ là:
+  </si>
+  <si>
+    <t>Cần Thơ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cần Thơ có thời tiết dễ chịu quanh năm, dù có mùa mưa và mùa khô rõ rệt. Thời gian lý tưởng để du lịch Cần Thơ là:
 - Mùa hè (tháng 5-8): Vườn trái cây đến vụ thu hoạch.
 - Mùa nước nổi (tháng 9-11): Trải nghiệm cuộc sống dân dã và thưởng thức đặc sản.
 - Mùa cận Tết (tháng 12-2): Rực rỡ sắc hoa.
@@ -1009,18 +509,12 @@
 - Hủ tiếu khô Sa Đéc
 Ngoài ra, cũng có thể mua đồ lưu niệm và thủ công mỹ nghệ của các làng nghề.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Cô Tô</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Thời điểm du lịch Cô Tô đẹp nhất là mùa hè và thu. Tháng 4-5 lý tưởng vì thời tiết khô ráo, không bão. Tháng 6-7 có bão thường xuyên, tháng 9-10 cảnh đẹp nhưng trời lạnh, mưa nhiều. Nên theo dõi dự báo thời tiết trước khi đi.
+  </si>
+  <si>
+    <t>Cô Tô</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thời điểm du lịch Cô Tô đẹp nhất là mùa hè và thu. Tháng 4-5 lý tưởng vì thời tiết khô ráo, không bão. Tháng 6-7 có bão thường xuyên, tháng 9-10 cảnh đẹp nhưng trời lạnh, mưa nhiều. Nên theo dõi dự báo thời tiết trước khi đi.
 Để di chuyển đến đảo Cô Tô, du khách có thể thực hiện theo các bước sau:
 - Đi từ miền Nam hoặc miền Trung đến Hà Nội hoặc Hải Phòng bằng máy bay.
 - Từ Hà Nội hoặc Hải Phòng đi xe limousine hoặc xe khách đến Cửa Ông, Cẩm Phả (khoảng 4 tiếng, giá 150.000 - 200.000 đồng).
@@ -1034,18 +528,12 @@
 - Mang áo khoác nhẹ vì nhiệt độ xuống thấp vào ban đêm.
 - Chọn khu vực cắm trại khuất gió và mang đèn pin.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Hà Nam</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hà Nam có khí hậu đồng bằng sông Hồng, nóng ẩm mùa hè và lạnh mùa đông. Nơi đây phù hợp ghé thăm quanh năm, nhưng mùa thu hoặc đông thích hợp nếu không chịu được nóng. Mùa lễ hội từ tháng 1 đến tháng 3, phù hợp tham quan chùa vào Rằm tháng 4.
+  </si>
+  <si>
+    <t>Hà Nam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hà Nam có khí hậu đồng bằng sông Hồng, nóng ẩm mùa hè và lạnh mùa đông. Nơi đây phù hợp ghé thăm quanh năm, nhưng mùa thu hoặc đông thích hợp nếu không chịu được nóng. Mùa lễ hội từ tháng 1 đến tháng 3, phù hợp tham quan chùa vào Rằm tháng 4.
 Hà Nam nằm ở phía nam thủ đô Hà Nội, có thủ phủ là thành phố Phủ Lý. Để di chuyển đến Hà Nam, bạn có thể chọn xe khách (80.000 - 90.000 đồng), xe khách giá rẻ (50.000 đồng) hoặc tàu hỏa (60.000 đồng).
 "Khám phá Hà Nam" là một chuyến đi thú vị để khám phá những điểm du lịch tâm linh và văn hóa đặc sắc của tỉnh Hà Nam. Một số điểm đến nổi bật bao gồm:
 - Chùa Bà Đanh: Một ngôi chùa linh thiêng với tượng Bà Đanh (thần Pháp Vũ) và câu thành ngữ "vắng như chùa Bà Đanh".
@@ -1063,18 +551,12 @@
 - Cơm rượu làng Vọc: được nấu bằng loại gạo đặc sản ngon và men ta, có vị thơm và không khô hoặc nhão quá.
 - Chuối ngự Đại Hoàng: còn được dân gian gọi là chuối "tiến vua" do vỏ ngoài màu vàng, cuống xanh tươi và quả đều tăm tắp.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Hà Nội</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Thời gian lý tưởng để du lịch Hà Nội là từ tháng 8 đến tháng 11 (mùa thu) và tháng 3 đến tháng 4 (mùa xuân). Mùa thu mang bầu trời xanh trong, gió se lạnh và lá vàng rơi, trong khi mùa xuân mang đến tiết trời ấm áp và hoa nở rộ.
+  </si>
+  <si>
+    <t>Hà Nội</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thời gian lý tưởng để du lịch Hà Nội là từ tháng 8 đến tháng 11 (mùa thu) và tháng 3 đến tháng 4 (mùa xuân). Mùa thu mang bầu trời xanh trong, gió se lạnh và lá vàng rơi, trong khi mùa xuân mang đến tiết trời ấm áp và hoa nở rộ.
 Hà Nội có nhiều phương tiện di chuyển đến và trong thành phố, bao gồm máy bay, tàu hỏa, xe khách, ôtô riêng, xe máy và xe đạp. Để trải nghiệm thành phố, bạn có thể đi xích lô, tour môtô ba bánh, xe buýt hai tầng hoặc đi xe máy.
 Hà Nội cung cấp nhiều lựa chọn lưu trú cho du khách, từ bình dân đến cao cấp. Bạn có thể thuê phòng dorm giá 100.000 đồng một đêm hoặc khách sạn cao cấp giá 3.000.000 - 5.000.000 đồng một đêm. Một số khách sạn nổi tiếng bao gồm Sofitel Legend Metropole Hà Nội, Hilton Hanoi Opera và Sheraton Hà Nội.
 Khám phá Hà Nội là một trải nghiệm tuyệt vời với nhiều điểm đến thú vị. Một số điểm đến nổi bật bao gồm:
@@ -1105,18 +587,12 @@
 - Trà sen (Tây Hồ): ướp trà sen là nghệ thuật, giá không rõ
 - Lụa Vạn Phúc (làng Vạn Phúc, phố Hàng Gai, Đinh Liệt): mỏng, mềm, bền màu, giá không rõ
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Rừng tràm Trà Sư</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mùa nước nổi (tháng 9-11) được coi là thời điểm đẹp nhất để trải nghiệm rừng tràm. Nước đổ về khiến rừng cây xanh tốt, kết hợp với bèo phủ xanh mặt nước, tạo nên khung cảnh đẹp. Đây cũng là thời điểm lý tưởng cho các loài cá, tôm và chim.
+  </si>
+  <si>
+    <t>Rừng tràm Trà Sư</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mùa nước nổi (tháng 9-11) được coi là thời điểm đẹp nhất để trải nghiệm rừng tràm. Nước đổ về khiến rừng cây xanh tốt, kết hợp với bèo phủ xanh mặt nước, tạo nên khung cảnh đẹp. Đây cũng là thời điểm lý tưởng cho các loài cá, tôm và chim.
 Để khám phá rừng tràm Trà Sư, du khách nên nghỉ đêm ở thành phố Châu Đốc và khởi hành vào buổi sáng. Thời gian di chuyển khoảng 30-40 phút bằng ôtô hoặc xe máy. Thời điểm tốt nhất để khám phá rừng là vào sáng sớm hoặc hoàng hôn, khi các loại chim tụ tập về rừng.
 Vé tham quan khu rừng tràm bao gồm:
 - Vé vào rừng: 100.000 đồng/người (miễn phí với trẻ em dưới 1m3 và người trên 70 tuổi)
@@ -1136,18 +612,12 @@
 - Sử dụng kem chống nắng và sản phẩm chống côn trùng.
 - Mang nước uống và đồ ăn nhẹ để đảm bảo an toàn.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Kỳ Co</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Để đến bãi Kỳ Co, có hai phương án di chuyển:
+  </si>
+  <si>
+    <t>Kỳ Co</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Để đến bãi Kỳ Co, có hai phương án di chuyển:
 1. Đi cano hoặc ghe từ Eo Gió ra Kỳ Co, trải nghiệm cảm giác lênh đênh trên sóng nước và ngắm cảnh núi non Nhơn Lý.
 2. Chạy xe máy theo con đường vòng quanh núi từ cầu Suối Cả về hướng nam, nhưng chỉ thích hợp với người có tay lái cứng.
 Giá vé vào khu du lịch biển Kỳ Co là 100.000 đồng/lượt với người lớn và 50.000 đồng/lượt với trẻ em.
@@ -1158,18 +628,12 @@
 - Không có cây cối, nên tìm bóng râm để tránh nắng nóng.
 - Chuẩn bị quần áo, nước, thức ăn và dụng cụ khác cho chuyến đi.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Tuyên Quang</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Thành phố Tuyên Quang cách Hà Nội khoảng 125 km. Đường cao tốc Nội Bài - Lào Cai và Tuyên Quang - Phú Thọ giúp di chuyển nhanh chóng. Xe khách từ Hà Nội đi Tuyên Quang mất khoảng 2 tiếng rưỡi, giá vé từ 70.000 - 150.000 đồng.
+  </si>
+  <si>
+    <t>Tuyên Quang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thành phố Tuyên Quang cách Hà Nội khoảng 125 km. Đường cao tốc Nội Bài - Lào Cai và Tuyên Quang - Phú Thọ giúp di chuyển nhanh chóng. Xe khách từ Hà Nội đi Tuyên Quang mất khoảng 2 tiếng rưỡi, giá vé từ 70.000 - 150.000 đồng.
 Thành phố Tuyên Quang có nhiều lựa chọn lưu trú với giá đa dạng. Khách sạn có giá từ 300.000 đến 1,3 triệu đồng một đêm. Hệ thống nhà nghỉ và homestay có giá từ 200.000 đồng trở xuống một đêm. Tại Na Hang, homestay có giá từ 70.000 đến 150.000 đồng một đêm.
 Tuyên Quang có 546 di tích lịch sử, văn hóa, danh thắng, trong đó có 435 di tích lịch sử. Một số điểm du lịch nổi tiếng tại Tuyên Quang bao gồm:
 - Lán Nà Lừa: nơi Chủ tịch Hồ Chí Minh ở và làm việc từ cuối tháng 5 đến cuối tháng 8/1945.
@@ -1192,18 +656,12 @@
 - Cam sành: loại quả nổi tiếng được trồng lâu đời ở Hàm Yên
 - Rượu ngô Na Hang: rượu có hương vị đậm đà của đồng bào dân tộc vùng đồi núi phía Bắc.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Tà Xùa</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Để đến Tà Xùa, bạn có thể sử dụng nhiều phương tiện như xe máy, ôtô cá nhân, xe khách, xe du lịch. Con đường chính lên trung tâm Tà Xùa đã được trải bê tông, dễ đi lại hơn. Xe limousine từ Hà Nội có giá 700.000 đồng một người.
+  </si>
+  <si>
+    <t>Tà Xùa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Để đến Tà Xùa, bạn có thể sử dụng nhiều phương tiện như xe máy, ôtô cá nhân, xe khách, xe du lịch. Con đường chính lên trung tâm Tà Xùa đã được trải bê tông, dễ đi lại hơn. Xe limousine từ Hà Nội có giá 700.000 đồng một người.
 Tà Xùa là khu du lịch mới phát triển, không có khách sạn lớn. Khu lưu trú tập trung ở trung tâm hoặc lân cận, chủ yếu là homestay và nhà nghỉ. Giá dao động từ 200.000 đến 1 triệu đồng một đêm. Có thể chọn homestay hoặc cắm trại tại đây.
 "Tà Xùa" là một khu vực du lịch nổi tiếng ở miền Bắc, bao gồm các điểm tham quan như:
 - Sống lưng khủng long: 1,5 km đường mòn ngắm mây đẹp nhất miền Bắc
@@ -1221,18 +679,12 @@
 - Tránh đi buổi tối và đi đoàn đông
 - Hỏi và trả giá khi đi bằng xe ôm
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Bình Định</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Thời tiết tại Bình Định:
+  </si>
+  <si>
+    <t>Bình Định</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thời tiết tại Bình Định:
 - Nhiệt độ trung bình khoảng 27 độ C, từ 20 độ C (vùng núi) đến 35-36 độ C (vùng biển).
 - Mùa mưa từ tháng 9 đến 12, và từ tháng 5 đến 8 ở khu vực miền núi.
 - Mùa khô từ tháng 1 đến 8, thích hợp cho du lịch.
@@ -1265,18 +717,12 @@
 - Bánh hồng: bánh có hình dạng đơn giản, vị thơm của nếp và độ giòn của dừa.
 - Hải sản: tôm hùm, cua huỳnh đế, các loại ốc tươi ngon.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Hòa Bình</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hòa Bình đẹp vào bất kỳ mùa nào. Du khách thường đến vào mùa hè vì thời tiết mát mẻ ở các điểm đến như Mai Châu và Thung Nai. Mùa lúa vàng ở Mai Châu (tháng 5-6) và mùa nước sông Đà trong xanh (tháng 5-8) cũng rất đẹp.
+  </si>
+  <si>
+    <t>Hòa Bình</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hòa Bình đẹp vào bất kỳ mùa nào. Du khách thường đến vào mùa hè vì thời tiết mát mẻ ở các điểm đến như Mai Châu và Thung Nai. Mùa lúa vàng ở Mai Châu (tháng 5-6) và mùa nước sông Đà trong xanh (tháng 5-8) cũng rất đẹp.
 Từ Hà Nội, du khách có thể đi đến Hòa Bình bằng xe khách hoặc xe máy. Xe khách có giá từ 60.000 đồng đến 220.000 đồng một chiều. Cung đường đi đẹp nhất là theo cao tốc Hoà Lạc hoặc đường Nguyễn Trãi qua Hà Đông.
 Hòa Bình có nhiều điểm lưu trú đẹp như Mai Châu, Kim Bôi và Lương Sơn. Một số khu nghỉ dưỡng nổi tiếng bao gồm:
 - Avana Retreat (Mai Châu): 4-6 triệu đồng/đêm
@@ -1304,18 +750,12 @@
 - Thịt lợn mán giòn và thơm ngọt
 Những đặc sản này có thể tìm thấy tại các nhà hàng như Bếp Mường, Hoa Quả Sơn, Hợp Thủy và Mai Châu Ecolodge.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Phú Quốc</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Phú Quốc đẹp nhất từ tháng 11 đến tháng 4, mùa khô với thời tiết nắng ấm, ít mưa và biển lặng. Đây là mùa lý tưởng cho tour nghỉ dưỡng. Từ tháng 5 đến tháng 10 là mùa mưa, nhưng tháng 10 và cuối tháng 4 là thời điểm giao mùa ít mưa.
+  </si>
+  <si>
+    <t>Phú Quốc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phú Quốc đẹp nhất từ tháng 11 đến tháng 4, mùa khô với thời tiết nắng ấm, ít mưa và biển lặng. Đây là mùa lý tưởng cho tour nghỉ dưỡng. Từ tháng 5 đến tháng 10 là mùa mưa, nhưng tháng 10 và cuối tháng 4 là thời điểm giao mùa ít mưa.
 Di chuyển đến Phú Quốc có nhiều lựa chọn:
 - Máy bay: Giá vé từ 1 triệu đồng, sân bay cách trung tâm đảo 15 phút.
 - Xe máy, ôtô, xe khách, tàu cao tốc hoặc phà từ TP HCM.
@@ -1358,18 +798,12 @@
 - Hỏi thời gian hoạt động của phà và tàu cao tốc.
 - Chuẩn bị thuốc chống say sóng.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Đà Lạt</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Đà Lạt có khí hậu mát mẻ quanh năm. Các mùa tại Đà Lạt bao gồm:
+  </si>
+  <si>
+    <t>Đà Lạt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đà Lạt có khí hậu mát mẻ quanh năm. Các mùa tại Đà Lạt bao gồm:
 - Mùa xuân (tháng 1-4): Rực rỡ sắc màu của nhiều loài hoa.
 - Mùa hè (tháng 5-9): Mùa mưa, du khách đi trốn nóng.
 - Mùa khô và lạnh (tháng 10-12): Ngắm hoa dã quỳ, cỏ hồng và cảnh mây phủ núi đồi.
@@ -1394,18 +828,12 @@
 - Lẩu gà lá é với thịt gà mềm và vị the nhẹ
 Ngoài ra, du khách còn có thể tìm thấy các món ăn vặt như súp cua, xôi, kem bơ, sữa đậu, bún riêu, thịt nướng ống tre, ốc bươu nhồi thịt và nem nướng.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Trạm Tấu</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Trạm Tấu đẹp nhất từ giữa tháng 8 đến giữa tháng 10 khi ruộng bậc thang lên xanh và chín vàng. Thời tiết khô từ mùa xuân đến mùa hè phù hợp cho trekking. Mùa đông mang đến cái lạnh đặc trưng của miền Bắc.
+  </si>
+  <si>
+    <t>Trạm Tấu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trạm Tấu đẹp nhất từ giữa tháng 8 đến giữa tháng 10 khi ruộng bậc thang lên xanh và chín vàng. Thời tiết khô từ mùa xuân đến mùa hè phù hợp cho trekking. Mùa đông mang đến cái lạnh đặc trưng của miền Bắc.
 Để đến Trạm Tấu, cách gần như duy nhất là đi đường bộ. Từ Hà Nội, bạn đến thị xã Nghĩa Lộ (190 km) rồi từ đó đến Trạm Tấu (30 km). Đường từ Nghĩa Lộ đến Trạm Tấu đẹp nhưng cần lưu ý đoạn hẹp và ngoằn ngoèo.
 Trạm Tấu không có khách sạn lớn, chỉ có homestay và nhà nghỉ. Có ba homestay phổ biến: Homestay Suối khoáng nóng Trạm Tấu (Cường Hải), Homestay Đồi chè Trạm Tấu và Xoè Homestay Trạm Tấu. Giá phòng từ 200.000 đồng đến 5,5 triệu đồng mỗi đêm.
 "Chơi gì" tại khu nghỉ dưỡng suối khoáng nóng Cường Hải ở Trạm Tấu:
@@ -1422,18 +850,12 @@
 - Măng ớt Trạm Tấu, được chế biến từ cây măng lay
 - Gạo nếp Trạm Tấu, có mùi thơm đặc trưng, dùng để nấu cơm, đồ xôi, làm bánh chưng và chế biến thành các món chè, sữa gạo, rượu nếp.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Sóc Sơn</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sóc Sơn là điểm đến lý tưởng cho du khách vào mùa hè nhờ không khí mát mẻ và thiên nhiên trong lành. Vào mùa đông, thời tiết lạnh lại tạo điều kiện lý tưởng cho những buổi tiệc nướng ngoài trời hoặc đốt lửa trại ở homestay.
+  </si>
+  <si>
+    <t>Sóc Sơn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sóc Sơn là điểm đến lý tưởng cho du khách vào mùa hè nhờ không khí mát mẻ và thiên nhiên trong lành. Vào mùa đông, thời tiết lạnh lại tạo điều kiện lý tưởng cho những buổi tiệc nướng ngoài trời hoặc đốt lửa trại ở homestay.
 Sóc Sơn là nơi lý tưởng để "đi trốn" cuối tuần từ Hà Nội. Bạn có thể đi bằng phương tiện công cộng (xe bus số 07, 15, 56A, 56B, 93) hoặc lái xe riêng theo hướng cao tốc Thăng Long - Nội Bài hoặc cầu Nhật Tân.
 Sóc Sơn là một huyện ngoại ô Hà Nội với nhiều điểm du lịch hấp dẫn. Dưới đây là một số điểm du lịch nổi bật tại Sóc Sơn:
 1. **Việt Phủ Thành Chương**: Một điểm đến văn hóa đậm chất Việt Nam, với các tác phẩm kiến trúc, điêu khắc, hội họa và nhiều di tích lịch sử.
@@ -1445,18 +867,12 @@
 Tất cả các điểm du lịch này đều có giá vé và giá thuê lều trại hợp lý, phù hợp với nhiều loại hình du lịch khác nhau.
 Tại Sóc Sơn, có nhiều khu nghỉ dưỡng đa dạng từ bình dân đến cao cấp. Các villa tư nhân đầy đủ tiện nghi như phòng sinh hoạt chung, bể bơi, khu vui chơi ngoài trời... Giá trung bình từ 4.000.000 đến 8.000.000 đồng một đêm, nên đặt sớm vì ngày cuối tuần thường kín phòng.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Mai Châu</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mai Châu đẹp quanh năm theo cách riêng. Các mùa đẹp bao gồm:
+  </si>
+  <si>
+    <t>Mai Châu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mai Châu đẹp quanh năm theo cách riêng. Các mùa đẹp bao gồm:
 - Xuân (tháng 2-4): ấm áp, hoa ban nở.
 - Mùa lúa chiêm (tháng 5-6): màu vàng phủ khắp thung lũng.
 - Mùa nước đổ (tháng 7).
@@ -1467,35 +883,23 @@
 Các homestay tại Mai Châu như A Páo, Y Múa, Y Sao, A Dơ là lựa chọn phù hợp cho du khách yêu thích sự yên bình. Giá phòng từ 80.000 đến 100.000 đồng. Các khu nghỉ dưỡng cao cấp như Mai Châu Ecolodge, Avana Retreat có giá từ 1,1 triệu đến 8 triệu đồng một đêm.
 Mai Châu là một điểm du lịch hấp dẫn với nhiều điểm tham quan độc đáo. Đèo Thung Khe, Bản Lác, Hang Mỏ Luông, Hang Kia - Pà Cò, Chợ Pà Cò, Thác Gò Lào và vịnh Ngòi Hoa là một số điểm đến nổi bật. Du khách có thể trải nghiệm văn hóa địa phương, mua sắm đồ thủ công và thưởng thức cảnh đẹp thiên nhiên.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Nam Du</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Di chuyển đến Nam Du có thể thực hiện bằng tàu thuyền từ các hướng Rạch Giá, Phú Quốc và Hà Tiên. Giá vé tàu từ 170.000 đến 400.000 đồng tùy loại tàu và chỗ ngồi. Trên đảo, du khách di chuyển bằng xe máy hoặc thuê xe ôm.
+  </si>
+  <si>
+    <t>Nam Du</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Di chuyển đến Nam Du có thể thực hiện bằng tàu thuyền từ các hướng Rạch Giá, Phú Quốc và Hà Tiên. Giá vé tàu từ 170.000 đến 400.000 đồng tùy loại tàu và chỗ ngồi. Trên đảo, du khách di chuyển bằng xe máy hoặc thuê xe ôm.
 Nam Du đang phát triển cơ sở lưu trú tiện nghi với các khách sạn lớn như Meta Sea resort, The Nam Du Hill, Nam Du Palace Hotel. Giá phòng dao động từ 500.000 - 1 triệu đồng. Ngoài ra, có nhiều lựa chọn lưu trú khác với giá từ 300.000 - 500.000 đồng một đêm.
 Quần đảo Nam Du là một điểm du lịch hấp dẫn với nhiều đảo đẹp và hoạt động thú vị. Hòn Củ Tron (hòn Lớn) là trung tâm hành chính và có nhiều bãi biển đẹp, rừng dừa lâu năm và ngọn hải đăng cao 296m. Du khách có thể tham quan các đảo khác như Hòn Ngang, Hòn Mấu, Hòn Dầu, Đồi Ma Thiên Lãnh và Hải đăng Nam Du.
 Ẩm thực Nam Du nổi tiếng với các món hải sản và đặc sản như ốc tai tượng, nhum nướng, cháo nhum, cá xương xanh nướng, bẹ chuối và khô cá. Mỗi món đều có hương vị độc đáo và được chế biến theo quy trình chặt chẽ.
 Tàu cao tốc đi Nam Du thường cắt chuyến vào mùa thấp điểm. Du khách nên theo dõi trước giờ tàu chạy để tránh lỡ chuyến. Điều này giúp đảm bảo không bị ảnh hưởng bởi lịch trình thay đổi không dự đoán được.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Ninh Bình</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ninh Bình đẹp vào mùa xuân (tháng 1-3) với tiết trời mát mẻ và nhiều lễ hội. Mùa hè (tháng 5-8) là thời điểm lý tưởng để ngắm cánh đồng lúa chín vàng và đầm sen thơm ngát. Đây là hai thời điểm lý tưởng để ghé thăm Ninh Bình.
+  </si>
+  <si>
+    <t>Ninh Bình</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ninh Bình đẹp vào mùa xuân (tháng 1-3) với tiết trời mát mẻ và nhiều lễ hội. Mùa hè (tháng 5-8) là thời điểm lý tưởng để ngắm cánh đồng lúa chín vàng và đầm sen thơm ngát. Đây là hai thời điểm lý tưởng để ghé thăm Ninh Bình.
 Để di chuyển đến Ninh Bình, du khách có thể:
 - Bắt xe khách từ Hà Nội (bến xe Giáp Bát) hoặc đặt xe Limousine (2 giờ, 100.000 - 150.000 đồng).
 - Bay từ TP. HCM đến Hà Nội và đi xe khách về Ninh Bình (900.000 - 1,3 triệu đồng/chiều).
@@ -1528,18 +932,12 @@
 - Hoặc Ngày 1: Tam Cốc, Bích Động và Đồi dứa Tam Điệp
 - Hoặc Ngày 1: Hà Nội - Vườn Quốc gia Cúc Phương và Ngày 2: Nhà thờ đá Phát Diệm và Vườn chim Thung Nham.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Đồng Tháp</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Để đến Đồng Tháp, du khách nên bay tới TP HCM hoặc Cần Thơ rồi sử dụng phương tiện di chuyển đường bộ. Khoảng cách từ TP HCM tới Cao Lãnh là 145 km, từ Cần Thơ là 85 km. Có thể di chuyển bằng xe khách hoặc đường thuỷ trên sông Hậu.
+  </si>
+  <si>
+    <t>Đồng Tháp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Để đến Đồng Tháp, du khách nên bay tới TP HCM hoặc Cần Thơ rồi sử dụng phương tiện di chuyển đường bộ. Khoảng cách từ TP HCM tới Cao Lãnh là 145 km, từ Cần Thơ là 85 km. Có thể di chuyển bằng xe khách hoặc đường thuỷ trên sông Hậu.
 Các khách sạn tại Đồng Tháp tập trung ở Cao Lãnh và Sa Đéc. Giá phòng dao động từ 300.000 - 700.000 đồng. Một số khách sạn được đánh giá cao gồm Thư Lê, Trí Lê, Đế Vương, Bảo Ngọc. Ngoài ra, có khách sạn Wildbird và các lựa chọn khác tại Tràm Chim.
 Dưới đây là tóm tắt về các điểm du lịch ở Đồng Tháp:
 - Chùa Lá Sen (Phước Kiển Tự): Một ngôi chùa có ao nước đầy lá sen khổng lồ, mỗi lá có đường kính từ 2 đến 3 m.
@@ -1554,18 +952,12 @@
 Đồng Tháp là điểm dừng chân lý tưởng với nhiều món ăn đặc trưng như lẩu mắm, cá kèo, cá linh, hủ tiếu, bún bò và bánh khọt. Đặc biệt, địa phương này nổi tiếng với các món ăn chế biến từ sen, với hơn 200 món ăn khác nhau.
 Ở khu vực Đồng bằng sông Cửu Long, đường giao thông nhỏ và mặt đường không đẹp, khiến thời gian di chuyển dài và vận tốc ôtô trung bình chỉ đạt khoảng 40 km/h. Điều này ảnh hưởng đến tốc độ và hiệu quả di chuyển trong khu vực này.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Hà Tĩnh</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Di chuyển đến Hà Tĩnh có thể thực hiện theo các phương tiện sau:
+  </si>
+  <si>
+    <t>Hà Tĩnh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Di chuyển đến Hà Tĩnh có thể thực hiện theo các phương tiện sau:
 - Đường hàng không: Hạ cánh tại sân bay Vinh, sau đó đi xe buýt khoảng 50 km (120.000 - 150.000 đồng).
 - Đường bộ: Di chuyển dễ dàng trên Quốc lộ 1A, thời gian di chuyển từ Hà Nội là 5 tiếng, từ TP HCM là 20 tiếng.
 - Đường sắt: Tàu Thống Nhất dừng tại ga Hương Phố, khoảng 50 km từ trung tâm thành phố Hà Tĩnh, giá vé từ 300.000 - 1,3 triệu đồng một chiều.
@@ -1590,18 +982,12 @@
 - Kẹo cu đơ: được nấu từ mật mía, đường, mạch nha, gừng, đậu phộng, dẻo và dính, thưởng thức cùng trà xanh.
 - Bưởi Phúc Trạch: có vị ngọt, chua thanh, mùi thơm, tép giòn, mọng nước, mùa thu hoạch từ tháng 8 đến tháng 9.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Yên Bái</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Từ Hà Nội, có hai hướng lên Yên Bái: đường bộ theo Quốc lộ 32 (200 km, 5 tiếng) và cao tốc Hà Nội - Lào Cai (150 km, 3 tiếng). Tùy vào điểm đến và mục đích, du khách chọn đường phù hợp. Khoảng cách giữa các điểm nổi tiếng trong tỉnh Yên Bái khoảng 30-75 km.
+  </si>
+  <si>
+    <t>Yên Bái</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Từ Hà Nội, có hai hướng lên Yên Bái: đường bộ theo Quốc lộ 32 (200 km, 5 tiếng) và cao tốc Hà Nội - Lào Cai (150 km, 3 tiếng). Tùy vào điểm đến và mục đích, du khách chọn đường phù hợp. Khoảng cách giữa các điểm nổi tiếng trong tỉnh Yên Bái khoảng 30-75 km.
 Mù Cang Chải, Tú Lệ và Trạm Tấu là những điểm lưu trú phổ biến ở Yên Bái. Các homestay, nhà sàn và nhà nghỉ bình dân là lựa chọn phổ biến với giá từ 50.000 đến 500.000 đồng một đêm. Ngoài ra, có các khu nghỉ dưỡng cao cấp như Le Champ Tu Le Resort và Garrya Mù Cang Chải.
 "Chơi đâu" là một câu hỏi thường được đặt ra khi du khách muốn khám phá những điểm du lịch nổi tiếng ở Yên Bái. Dưới đây là một số gợi ý:
 - **Mường Lò**: Là nơi có cánh đồng lớn thứ hai của miền núi Tây Bắc, nổi tiếng với suối nước nóng và chè Shan Tuyết.
@@ -1626,18 +1012,12 @@
 - Cam sành Tân Lĩnh: quả màu vàng nâu, vỏ sần và dày, múi cam róc vỏ, không dính bết và mọng nước.
 - Quýt vỏ giòn Lục Yên: màu hồng tươi điểm đốm xanh, giòn và dễ bóc, quýt thơm và mọng nước.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Mèo Vạc</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mèo Vạc cách Hà Giang 150 km và Đồng Văn 30 km. Có 3 tuyến đường chính để đến Mèo Vạc: 
+  </si>
+  <si>
+    <t>Mèo Vạc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mèo Vạc cách Hà Giang 150 km và Đồng Văn 30 km. Có 3 tuyến đường chính để đến Mèo Vạc: 
 - Xe quốc lộ 4C qua Quản Bạ, Yên Minh
 - Quốc lộ 34 và 4C
 - Quốc lộ 4C và tỉnh lộ 176 (đường nhỏ hơn, di chuyển lâu hơn)
@@ -1662,18 +1042,12 @@
 - Mr. Hung Italian Restaurant &amp; Bar Wine Mèo Vạc
 Đi lại ở Mèo Vạc và Hà Giang khó khăn, đòi hỏi tay lái chắc chắn. Nếu không có kinh nghiệm, nên thuê người địa phương để đảm bảo an toàn. Điều này giúp du khách tận hưởng chuyến đi một cách an toàn và thoải mái.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Bình Dương</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Di chuyển đến Bình Dương có thể thực hiện theo các cách sau:
+  </si>
+  <si>
+    <t>Bình Dương</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Di chuyển đến Bình Dương có thể thực hiện theo các cách sau:
 - Từ TP HCM: 
   - Xe khách: 60.000 đồng - 90 phút
   - Xe buýt: 20.000 đồng
@@ -1707,18 +1081,12 @@
 - Cháo môn lươn: món ăn hấp dẫn và đặc biệt với sự kết hợp hài hòa giữa các nguyên liệu bình dị.
 Bình Dương nổi tiếng với các đặc sản nhiệt đới như măng cụt Lái Thiêu và mứt gừng Bình Nhâm. Măng cụt Lái Thiêu có da láng, vỏ đỏ đen, và vị ngọt thanh. Mứt gừng được làm từ gừng tươi, chanh và đường, vị cay nhẹ và ngọt thanh.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Sầm Sơn</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sầm Sơn đẹp nhất vào mùa hè (tháng 5-8) khi đón hàng triệu lượt khách. Kỳ nghỉ lễ 30/4-1/5 là thời điểm đông khách nhất. Mùa thu cũng lý tưởng với thời tiết mát mẻ, bãi biển thoáng đãng và giá cả dịch vụ đã bình ổn hơn.
+  </si>
+  <si>
+    <t>Sầm Sơn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sầm Sơn đẹp nhất vào mùa hè (tháng 5-8) khi đón hàng triệu lượt khách. Kỳ nghỉ lễ 30/4-1/5 là thời điểm đông khách nhất. Mùa thu cũng lý tưởng với thời tiết mát mẻ, bãi biển thoáng đãng và giá cả dịch vụ đã bình ổn hơn.
 Quãng đường từ Hà Nội đến Sầm Sơn khoảng 180 km, thời gian di chuyển hơn 2 tiếng. Có nhiều lựa chọn di chuyển như:
 - Tàu hỏa: giá từ 160.000 - 280.000 đồng
 - Ôtô khách: giá từ 100.000 đồng
@@ -1748,18 +1116,12 @@
 - Diễu hành mô tô phân khối lớn.
 Biển Sầm Sơn nổi tiếng với hơn 1.000 loại hải sản quý hiếm như tôm, cua, cá và đặc biệt là gỏi cá và lẩu rắn biển. Một số địa chỉ ăn uống nổi tiếng tại đây bao gồm bún hải sản Cao hùng quán, nhà hàng Chinh Thuỷ và các nhà hàng khác.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Đồng Văn</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Đồng Văn có khí hậu gió mùa lục địa với lượng mưa trung bình 1.750-2.000 mm tập trung từ tháng 5-10. Mùa khô từ tháng 11-4. Nhiệt độ trung bình 20 độ C, có thể xuống 1-2 độ hoặc lên gần 40 độ C. Độ ẩm khoảng 84%, xuất hiện sương muối và mưa tuyết vào mùa đông.
+  </si>
+  <si>
+    <t>Đồng Văn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đồng Văn có khí hậu gió mùa lục địa với lượng mưa trung bình 1.750-2.000 mm tập trung từ tháng 5-10. Mùa khô từ tháng 11-4. Nhiệt độ trung bình 20 độ C, có thể xuống 1-2 độ hoặc lên gần 40 độ C. Độ ẩm khoảng 84%, xuất hiện sương muối và mưa tuyết vào mùa đông.
 Đồng Văn cách Hà Giang 150 km về phía Bắc. Du khách có thể di chuyển bằng xe máy, ôtô tự lái, ôtô thuê hoặc xe khách. Thời gian di chuyển khoảng 3-5 tiếng. Tại Đồng Văn, du khách có thể thuê xe máy với giá khoảng 100.000 đồng một ngày.
 Đồng Văn có nhiều lựa chọn lưu trú, bao gồm nhà nghỉ, homestay và khách sạn. Homestay là lựa chọn phổ biến nhất với giá từ 400.000 đến 1 triệu đồng một đêm hoặc 100.000 đến 250.000 đồng một đệm. Khách sạn có giá trung bình từ 400.000 đến 1 triệu đồng một đêm.
 Dưới đây là tóm tắt về các điểm đến tại Hà Giang:
@@ -1779,18 +1141,12 @@
 - Thắng dền: món ăn chơi với viên bột nếp tròn luộc chín và nước đường nấu gừng.
 - Mèn mén: món ăn dân dã với ngô phơi khô và chế biến qua nhiều công đoạn.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Châu Đốc</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t xml:space="preserve">"Mùa đẹp" ở Châu Đốc thường diễn ra vào hai thời điểm: đầu năm (Tết cổ truyền Khmer và lễ hội Bà Chúa Xứ núi Sam) và cuối năm (mùa nước nổi từ tháng 9 đến tháng 12). Đây là thời điểm lý tưởng để du khách tham quan và trải nghiệm.
+  </si>
+  <si>
+    <t>Châu Đốc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Mùa đẹp" ở Châu Đốc thường diễn ra vào hai thời điểm: đầu năm (Tết cổ truyền Khmer và lễ hội Bà Chúa Xứ núi Sam) và cuối năm (mùa nước nổi từ tháng 9 đến tháng 12). Đây là thời điểm lý tưởng để du khách tham quan và trải nghiệm.
 Phương tiện di chuyển thuận tiện nhất đến Châu Đốc là đường bộ. Từ TP HCM và các tỉnh phía Nam, du khách đi theo các tuyến đường như Quốc lộ 1A, CT02, Quốc lộ 62, Quốc lộ 91, Quốc lộ 80. Từ Hà Nội, du khách bay đến Cần Thơ rồi đi đường bộ.
 TP Châu Đốc có nhiều lựa chọn lưu trú từ bình dân đến cao cấp. Giá tiền mỗi đêm dao động từ 200.000 đồng đến 2 triệu đồng. Các khách sạn cao cấp như Victoria Châu Đốc Hotel và Victoria Nui Sam Lodge được đánh giá cao.
 Tham quan là một điểm đến không thể bỏ qua ở thành phố Châu Đốc, An Giang. Đây là nơi buôn bán và trao đổi hàng hóa của các tiểu thương trong vùng. Du khách có thể tham quan chợ Châu Đốc, tượng đài cá ba sa, làng bè nuôi cá, miếu Bà Chúa Xứ núi Sam, lăng Thoại Ngọc Hầu, chùa Hang, pháo đài núi Sam, rừng tràm Trà Sư và làng Chăm Châu Phong.
@@ -1803,18 +1159,12 @@
 Đặc sản Châu Đốc bao gồm các loại mắm, đường thốt nốt, quả thốt nốt, khô Châu Đốc (khô cá và khô bò) và quả mây gai (mùa hè). Những món này là lựa chọn tuyệt vời để mua về làm quà cho người thân và bạn bè khi đến thăm Châu Đốc.
 'Lưu ý': Mùa nước nổi ở thời điểm trời mưa nhưng không liên tục, ít ảnh hưởng tới các hoạt động du lịch.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Hải Dương</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hải Dương phù hợp tham quan cả 4 mùa trong năm. Thời điểm đẹp nhất là mùa lễ hội từ tháng 1 đến tháng 3, khi có nhiều đền chùa và di tích lịch sử. Các mùa khác như vải thiều (tháng 5-6), hoa hướng dương (tháng 10) và hoa dã quỳ (tháng 12) cũng hấp dẫn.
+  </si>
+  <si>
+    <t>Hải Dương</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hải Dương phù hợp tham quan cả 4 mùa trong năm. Thời điểm đẹp nhất là mùa lễ hội từ tháng 1 đến tháng 3, khi có nhiều đền chùa và di tích lịch sử. Các mùa khác như vải thiều (tháng 5-6), hoa hướng dương (tháng 10) và hoa dã quỳ (tháng 12) cũng hấp dẫn.
 Hải Dương cách Hà Nội khoảng 60 km và có nhiều phương tiện di chuyển như xe cá nhân, xe khách, xe limousine và tàu hỏa. Xe limousine là lựa chọn nhanh nhất với giá 250.000 đồng, trong khi xe khách giá từ 60.000-70.000 đồng. Tàu hỏa cũng là lựa chọn thú vị.
 Hải Dương là một tỉnh có nhiều di sản văn hóa và thắng cảnh đẹp. Một số điểm tham quan nổi bật bao gồm:
 - Đảo cò: khu vực sinh sống của khoảng 12.000 cá thể cò và 5.030 cá thể vạc.
@@ -1840,18 +1190,12 @@
 - Vải Thanh Hà: có vỏ chín màu đỏ tươi, cùi vải dày, màu trắng trong, giòn, vị ngọt thanh và mùi thơm nhẹ.
 - Cá rô đồng: thịt chắc, mềm và vị ngọt vừa vặn, được luộc, ướp gia vị và xào cùng hành tỏi.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Lăng Cô</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mùa đẹp nhất để khám phá vịnh Lăng Cô là từ tháng 4 đến đầu tháng 8. Thời tiết trong khoảng 24-25 độ C, không quá lạnh hoặc nóng. Đây là thời điểm lý tưởng để tham quan vịnh Lăng Cô, tránh được bão và lũ lụt.
+  </si>
+  <si>
+    <t>Lăng Cô</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mùa đẹp nhất để khám phá vịnh Lăng Cô là từ tháng 4 đến đầu tháng 8. Thời tiết trong khoảng 24-25 độ C, không quá lạnh hoặc nóng. Đây là thời điểm lý tưởng để tham quan vịnh Lăng Cô, tránh được bão và lũ lụt.
 Lăng Cô nằm gần quốc lộ 1A và chân đèo Hải Vân, thuận tiện di chuyển bằng ôtô hoặc xe khách. Từ sân bay/ga tàu ở Đà Nẵng, di chuyển đến Lăng Cô mất khoảng 1 tiếng 15 phút. Giá vé máy bay và tàu hỏa dao động từ 2-5 triệu đồng.
 Lăng Cô có nhiều lựa chọn lưu trú đa dạng, từ bình dân đến cao cấp. Các khách sạn bình dân có giá từ 300.000 đồng một đêm, trong khi các khu lưu trú cao cấp như Lăng Cô Beach Resort (4 sao) và Angsana Lăng Cô, Banyan Tree Lăng Cô (5 sao) có giá từ 700.000 đồng đến 8 triệu đồng một đêm.
 "Chơi đâu" là một khu vực du lịch nổi tiếng ở huyện Phú Lộc, Thừa Thiên - Huế. Khu vực này có nhiều điểm đến đẹp như:
@@ -1866,35 +1210,23 @@
 - Tránh tắm ở bãi biển chưa có biển cảnh báo và đội cứu hộ.
 - Buổi tối không có nhiều hoạt động vui chơi giải trí.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Nha Trang</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Khí hậu ở Nha Trang ôn hòa, du khách có thể đến quanh năm. Từ tháng 4 đến tháng 6, trời nắng nóng nhưng không quá oi bức. Từ tháng 9 đến tháng 12, trời mưa nhiều hơn, phù hợp cho những du khách muốn nghỉ dưỡng yên tĩnh.
+  </si>
+  <si>
+    <t>Nha Trang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khí hậu ở Nha Trang ôn hòa, du khách có thể đến quanh năm. Từ tháng 4 đến tháng 6, trời nắng nóng nhưng không quá oi bức. Từ tháng 9 đến tháng 12, trời mưa nhiều hơn, phù hợp cho những du khách muốn nghỉ dưỡng yên tĩnh.
 Di chuyển đến Nha Trang có thể thực hiện bằng các hãng hàng không như Vietnam Airlines, Vietjet Air, Jetstar, Bamboo Airways. Giá vé dao động từ 1,4 triệu đến 2,5 triệu đồng. Từ sân bay Cam Ranh, du khách có thể thuê taxi, xe bus hoặc xe máy để tham quan thành phố.
 Trên trục đường Trần Phú ở Nha Trang có nhiều khách sạn cho du khách lựa chọn, bao gồm Mường Thanh, Novotel, InterContinental, Sheraton và Lodge. Giá từ 900.000 đồng đến 3 triệu đồng một đêm. Ngoài ra, có các lựa chọn khác như homestay và resort như Amiana, Vinpearl và MerPerle.
 Nha Trang có nhiều đặc sản và món ăn hấp dẫn như bánh xèo mực, nem nướng, bún chả cá, bánh căn, bánh ướt. Thành phố cũng có nhiều quán cà phê, trà chanh, trà sữa, chè được yêu thích bởi du khách và người dân địa phương.
 Nha Trang là một thành phố biển đẹp với nhiều điểm đến hấp dẫn. Bãi biển Nha Trang được đánh giá là trong, sạch và cát vàng mịn. Các đảo trong vịnh như Hòn Miễu, Hòn Tằm, Hòn Chồng, Hòn Mun, Đảo Yến, Đảo Khỉ, Hòn Một đều có những vẻ đẹp riêng biệt. Du khách có thể tham quan thủy cung Trí Nguyên, bảo tàng Hải dương học, ngôi đền Chăm Pa, núi Cô Tiên và khu vui chơi giải trí Vinpearl Land.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Nghệ An</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nghệ An có bốn mùa rõ rệt. Thời điểm đẹp nhất để đi nghỉ dưỡng và tắm biển là mùa hè (tháng 4-6). Mùa xuân và thu phù hợp cho thăm thú và tham gia lễ hội. Mùa hướng dương từ tháng 12 đến Tết Nguyên đán lý tưởng cho săn hoa.
+  </si>
+  <si>
+    <t>Nghệ An</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nghệ An có bốn mùa rõ rệt. Thời điểm đẹp nhất để đi nghỉ dưỡng và tắm biển là mùa hè (tháng 4-6). Mùa xuân và thu phù hợp cho thăm thú và tham gia lễ hội. Mùa hướng dương từ tháng 12 đến Tết Nguyên đán lý tưởng cho săn hoa.
 Nghệ An có nhiều phương tiện di chuyển đến Vinh. Du khách có thể đi bằng đường bộ (xe khách, ôtô riêng, xe máy), đường bay (Vietnam Airlines, Bamboo Airways, Vietjet) hoặc tàu hỏa. Thời gian và giá vé có thể thay đổi tùy theo thời điểm và phương tiện.
 Nghệ An có nhiều cơ sở lưu trú từ 3 đến 5 sao như Vinpearl Cửa Hội, Mường Thanh, Sài Gòn Kim Liên... Giá phòng từ 1.000.000 đến 3.000.000 đồng một đêm. Một số gợi ý tại Cửa Lò và TP Vinh có giá từ 400.000 đồng một đêm.
 Nghệ An là tỉnh rộng nhất Việt Nam, với nhiều điểm du lịch hấp dẫn. Một số điểm du lịch nổi bật bao gồm:
@@ -1919,18 +1251,12 @@
 - Tham quan các làng nghề như mây tre đan, dệt thổ cẩm, làm nồi đất, sản xuất hương tràm, sản xuất tương, chế biến nước mắm.
 Nghệ An có nhiều đặc sản nổi tiếng như bánh mướt, cháo canh, mực nhảy nướng, bánh bèo, cháo lươn, giò me, dê Cẩu Đòn, rươi Hưng Châu, gà Thanh Chương, nhút Thanh Chương, nước mắm, tương Nam Đàn, trà dược liệu, cam Vinh, kẹo cu đơ.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Hội An</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Khí hậu Hội An có sự thay đổi rõ rệt giữa mùa mưa và mùa khô. Thời điểm đẹp nhất để du lịch Hội An là ba tháng đầu năm, khi nắng không quá gắt và trời mát mẻ. Mỗi mùa đều có nét đẹp riêng.
+  </si>
+  <si>
+    <t>Hội An</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khí hậu Hội An có sự thay đổi rõ rệt giữa mùa mưa và mùa khô. Thời điểm đẹp nhất để du lịch Hội An là ba tháng đầu năm, khi nắng không quá gắt và trời mát mẻ. Mỗi mùa đều có nét đẹp riêng.
 Để di chuyển từ sân bay Đà Nẵng đến Hội An, bạn có thể chọn các phương tiện sau:
 - Xe khách trung chuyển hoặc taxi: giá từ 250.000 đồng một chuyến
 - Xe bus: giá 20.000 đồng mỗi người, tuyến số 01 Đà Nẵng - Hội An
@@ -1954,18 +1280,12 @@
 - Đồ khắc gỗ giá từ 120.000 đến 300.000 đồng.
 - Lụa tơ tằm Hội An giá trung bình 150.000 đồng.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Tam Đảo</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tam Đảo đẹp quanh năm với vẻ đẹp riêng của mỗi mùa. Mùa xuân là thời điểm hoa khoe sắc, mùa hè đông khách vào cuối tuần để tránh nóng, mùa đông (tháng 11-1) là thời điểm lý tưởng để săn mây và ngắm cảnh lãng mạn.
+  </si>
+  <si>
+    <t>Tam Đảo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tam Đảo đẹp quanh năm với vẻ đẹp riêng của mỗi mùa. Mùa xuân là thời điểm hoa khoe sắc, mùa hè đông khách vào cuối tuần để tránh nóng, mùa đông (tháng 11-1) là thời điểm lý tưởng để săn mây và ngắm cảnh lãng mạn.
 Từ Hà Nội, bạn có thể đi Tam Đảo bằng ôtô, xe máy cá nhân, xe khách, xe limousine hoặc taxi. Thời gian di chuyển khoảng 2 tiếng. Nếu đi xe máy, nên chọn xe số vì đường nhiều dốc và khúc cua. Giá thuê xe máy tại Tam Đảo khoảng 150.000 - 250.000 đồng một ngày.
 Khách sạn và homestay là hai lựa chọn lưu trú phổ biến ở Tam Đảo. Khách sạn tiện nghi hơn, gần trung tâm thị trấn, trong khi homestay có tầm nhìn đẹp và giá cả hợp lý hơn. Giá phòng dao động từ 450.000 đến 2 triệu đồng một đêm.
 "Chơi đâu?" là một số gợi ý điểm đến tại Tam Đảo, bao gồm:
@@ -1979,18 +1299,12 @@
 Đặc sản Tam Đảo nổi tiếng là ngọn su su tươi ngon, được trồng khắp thị trấn. Ngoài ra, có các món ăn đặc biệt như bò tái kiến đốt (350.000 đồng/kg), thịt cuốn su su, gà đồi bọc đất nướng, thịt lợn mán, xôi đen.
 Rock Cafe và Quán Gió là hai điểm đến thú vị ở thị trấn. Rock Cafe nổi bật với kiến trúc châu Âu ấm cúng và thực đơn Âu giá từ 30.000 - 300.000 đồng. Quán Gió là quán cà phê ngắm toàn cảnh thị trấn với thực đơn đa dạng giá từ 40.000 đồng.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>TP Vũng Tàu</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Vũng Tàu có hai mùa rõ rệt: mưa (tháng 5-10) và nắng (tháng 11-4). Nhiệt độ trung bình 27 độ C. Thời điểm lý tưởng để du lịch là trước và sau Tết, khi rừng hoa anh đào nở rộ. Tuy nhiên, cần tránh các dịp lễ đông người và mưa bão.
+  </si>
+  <si>
+    <t>TP Vũng Tàu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vũng Tàu có hai mùa rõ rệt: mưa (tháng 5-10) và nắng (tháng 11-4). Nhiệt độ trung bình 27 độ C. Thời điểm lý tưởng để du lịch là trước và sau Tết, khi rừng hoa anh đào nở rộ. Tuy nhiên, cần tránh các dịp lễ đông người và mưa bão.
 Để di chuyển từ TP HCM đến Vũng Tàu, du khách có thể chọn các phương tiện sau:
 - Xe máy, ôtô hoặc tàu cao tốc, phà
 - Giá vé phà: 70.000 đồng/lượt khách, 50.000 đồng/xe máy, 350.000 - 800.000 đồng/ôtô
@@ -2010,18 +1324,12 @@
 - bánh mì chả cá (có giá khoảng 10.000 - 15.000 đồng một ổ)
 Ở Vũng Tàu, có nhiều quán cà phê view biển dọc đường Hạ Long, Trần Phú, Hải Đăng. Một số quán nổi bật bao gồm Gazebo Beach Front Lounge &amp; Café với phong cách Địa Trung Hải, view biển đẹp và nhạc sống buổi tối, cùng với SOHO Coffee, Ô Cấp Coffee và La Vie En Rose.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Hạ Long</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TP Hạ Long có khí hậu 4 mùa. Mỗi mùa đều có vẻ đẹp riêng. Mùa hè phù hợp cho bơi lội và tắm nắng, mùa xuân và thu mát mẻ cho ngắm cảnh và tham gia hoạt động ngoài trời. Mùa cao điểm từ tháng 6 đến tháng 8.
+  </si>
+  <si>
+    <t>Hạ Long</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP Hạ Long có khí hậu 4 mùa. Mỗi mùa đều có vẻ đẹp riêng. Mùa hè phù hợp cho bơi lội và tắm nắng, mùa xuân và thu mát mẻ cho ngắm cảnh và tham gia hoạt động ngoài trời. Mùa cao điểm từ tháng 6 đến tháng 8.
 Từ Hà Nội, du khách có thể di chuyển đến Hạ Long bằng xe cá nhân, xe Limousine, xe khách hoặc đường hàng không. Đường cao tốc Hà Nội - Hải Phòng - Hạ Long là lựa chọn lý tưởng. Tại Hạ Long, có thể thuê xe máy hoặc taxi để di chuyển.
 Lựa chọn lưu trú ở Hạ Long đa dạng, bao gồm khách sạn, homestay, khu nghỉ dưỡng, nhà nghỉ và du thuyền. Giá thuê từ vài trăm nghìn đến vài triệu đồng. Các lựa chọn homestay như The Bay, Halong Ginger, Orestay, Deja Vu House, và khách sạn cao cấp như FLC Grand Hotel, Wyndham Legend Halong.
 "Chơi gì" tại Vịnh Hạ Long là một chủ đề rộng lớn với nhiều lựa chọn thú vị. Dưới đây là một số gợi ý:
@@ -2040,18 +1348,12 @@
 Để tìm ăn hải sản tại Hạ Long, bạn có thể tới các địa điểm như chợ Cái Dăm, khu vực Vườn Đào, bến Đoan, khu lồng bè hoặc thưởng thức tour trên vịnh. Một số nhà hàng ngon bao gồm Hồng Hạnh, Phương Nam, Cua Vàng và nhiều quán khác.
 Hạ Long là nơi lý tưởng để mua quà. Hải sản khô như mực, cá khô, tôm khô, chả mực giã tay và đồ chế tác từ vỏ sinh vật biển, than đá là những món quà đậm chất Hạ Long. Bạn có thể tìm mua tại chợ đêm, chợ Cái Dăm và cửa hàng hải sản truyền thống.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Cát Bà</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cát Bà đẹp nhất vào mùa hè từ tháng 4 đến tháng 10, thời tiết mát mẻ, thích hợp cho nghỉ dưỡng và tắm biển. Mùa cao điểm từ tháng 5 đến tháng 7. Từ tháng 11 đến tháng 3, hòn đảo vắng vẻ nhưng lý tưởng để khám phá thiên nhiên.
+  </si>
+  <si>
+    <t>Cát Bà</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cát Bà đẹp nhất vào mùa hè từ tháng 4 đến tháng 10, thời tiết mát mẻ, thích hợp cho nghỉ dưỡng và tắm biển. Mùa cao điểm từ tháng 5 đến tháng 7. Từ tháng 11 đến tháng 3, hòn đảo vắng vẻ nhưng lý tưởng để khám phá thiên nhiên.
 Có nhiều cách di chuyển đến Cát Bà từ Hà Nội và Hải Phòng. Từ Cát Hải, du khách có thể đi phà Đồng Bài hoặc bến cáp treo. Từ Hải Phòng, có thể đi tàu cao tốc hoặc phà. Ngoài ra, có thể đi phà từ Tuần Châu (Quảng Ninh) nhưng hạn chế và thời gian di chuyển lâu hơn.
 "Chơi đâu" là một điểm đến du lịch hấp dẫn ở Vịnh Lan Hạ, thuộc đảo Cát Bà. Vịnh này có vùng nước lặng và xanh, được Hiệp hội Câu lạc bộ Các vịnh đẹp nhất thế giới (MBBW) công nhận. Du khách có thể tham quan làng chài cổ Vụng O, tắm biển, lặn, chèo kayak, leo núi, thăm hang động và khám phá các đảo ngoài vịnh.
 Ở Cát Bà, du khách có nhiều lựa chọn về nơi lưu trú từ bình dân đến cao cấp. Giá trung bình của các khách sạn và nhà nghỉ dao động từ 500.000 đến 1.000.000 đồng một đêm. Các khu nghỉ dưỡng và homestay cũng có sẵn với giá từ 1.500.000 đến 6.000.000 đồng một đêm.
@@ -2062,18 +1364,12 @@
 - Khám phá vịnh có thể bỏ qua bãi tắm, đảo nhỏ do nước dâng cao.
 - Hỏi giá trước khi mua sắm, ăn uống.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Vịnh Lan Hạ</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Vịnh Lan Hạ có bốn mùa theo thời tiết miền Bắc. Từ tháng 5 đến tháng 8 là mùa hè với thời tiết nắng nóng, thích hợp cho du lịch và trải nghiệm du thuyền. Từ tháng 9 đến tháng 11 là mùa yên bình, mát mẻ.
+  </si>
+  <si>
+    <t>Vịnh Lan Hạ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vịnh Lan Hạ có bốn mùa theo thời tiết miền Bắc. Từ tháng 5 đến tháng 8 là mùa hè với thời tiết nắng nóng, thích hợp cho du lịch và trải nghiệm du thuyền. Từ tháng 9 đến tháng 11 là mùa yên bình, mát mẻ.
 Nếu đi theo nhóm, du khách có thể thuê riêng tàu để tham quan vịnh Lan Hạ. Giá thuê tàu phụ thuộc vào loại tàu và thời gian tham quan. Giá thuê tàu cho nhóm từ 10-20 người là 1,6-5 triệu đồng, và cho nhóm từ 25-50 người là 2,2-7 triệu đồng.
 Vịnh Lan Hạ đã dỡ bỏ các khu lưu trú tự phát để bảo tồn hệ sinh thái biển. Du khách có thể chọn các khách sạn cao cấp như Flamingo Cát Bà Beach Resort và Hôtel Perle d'Orient Cat Ba - MGallery với giá từ 2-3,5 triệu đồng mỗi đêm.
 "Chơi gì" tại Vườn quốc gia Cát Bà và quần đảo Cát Bà:
@@ -2088,18 +1384,12 @@
 Ẩm thực ở vùng vịnh Lan Hạ chủ yếu là hải sản, bao gồm sam biển, tu hài, cá song, bề bề, tôm và ốc. Hải sản có thể mua về làm quà hoặc tự tổ chức BBQ trên các bãi biển được phép như đảo Khỉ hay đảo Tự Do.
 Khi ăn hải sản ở vịnh Lan Hạ, du khách nên lưu ý hỏi giá trước khi mua, đặc biệt trong cao điểm hè từ tháng 5 đến tháng 8. Điều này giúp tránh bị lừa đảo và đảm bảo chi phí hợp lý.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Hải Phòng</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hải Phòng đẹp trong cả 4 mùa. Mùa đông, thưởng thức ẩm thực đường phố nóng hổi. Mùa hè, đi biển, thưởng thức dừa dầm và hoa phượng nở rộ. Mỗi mùa đều mang đến trải nghiệm độc đáo và thú vị cho du khách.
+  </si>
+  <si>
+    <t>Hải Phòng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hải Phòng đẹp trong cả 4 mùa. Mùa đông, thưởng thức ẩm thực đường phố nóng hổi. Mùa hè, đi biển, thưởng thức dừa dầm và hoa phượng nở rộ. Mỗi mùa đều mang đến trải nghiệm độc đáo và thú vị cho du khách.
 Từ Hà Nội, có thể di chuyển đến Hải Phòng bằng cao tốc (1,5 tiếng), tàu hỏa (100.000-130.000 đồng), xe khách (120.000-250.000 đồng) hoặc xe limousine (230.000-250.000 đồng). Từ TP HCM, có thể bay đến Hà Nội và di chuyển đường bộ đến Hải Phòng.
 Lưu trú tại Hải Phòng có nhiều lựa chọn từ cao cấp đến bình dân. Các khách sạn sang trọng như Hotel Nikko, Mercure Hai Phong và Vinpearl Hotel Imperia có giá từ 1,2 triệu đến 2,5 triệu đồng một đêm. Còn có các lựa chọn bình dân như homestay và khu nhà liền kề.
 "Khám phá Hải Phòng" là một trải nghiệm thú vị với nhiều địa điểm hấp dẫn. Dưới đây là một số điểm đến nổi bật:
@@ -2112,18 +1402,12 @@
 Tất cả những địa điểm này đều mang lại cho du khách một trải nghiệm thú vị và đáng nhớ khi đến với Hải Phòng.
 Hải Phòng nổi tiếng với ẩm thực đường phố đa dạng. Du khách có thể tham gia food tour để thưởng thức các món ngon như bánh bèo, bánh đa cua, bánh mì cay, dừa dầm, bún cá cay, ốc, trà cúc, sủi dìn và bánh đúc tàu.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>An Giang</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t xml:space="preserve">An Giang có mùa đẹp khác nhau tùy theo thời điểm:
+  </si>
+  <si>
+    <t>An Giang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An Giang có mùa đẹp khác nhau tùy theo thời điểm:
 - Từ tháng 3 đến tháng 5: Mùa nắng khô ráo.
 - Tháng 10 và 11: Ngắm thảm bèo và thế giới tự nhiên xanh mát ở rừng tràm Trà Sư.
 - Cuối tháng 11 đến đầu tháng 12: Chiêm ngưỡng cánh đồng lúa chín ở Tà Pạ.
@@ -2156,18 +1440,12 @@
 - Rau đồng (bông súng, bông điên điển, hẹ nước, rau nhút)
 - Cá linh (nhúng giấm hoặc làm mắm)
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Hà Tiên</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Di chuyển đến Hà Tiên có thể thực hiện theo các cách sau:
+  </si>
+  <si>
+    <t>Hà Tiên</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Di chuyển đến Hà Tiên có thể thực hiện theo các cách sau:
 - Đường hàng không: Sân bay Rạch Giá chỉ tiếp nhận máy bay nhỏ, có đường bay thẳng từ TP HCM với tần suất 3 chuyến mỗi tuần. Thời gian bay 50 phút.
 - Đường bộ: Du khách có thể đi bằng taxi, ôtô thuê riêng hay xe máy từ sân bay Rạch Giá đến Hà Tiên trong khoảng 1 tiếng 15 phút.
 - Đường bộ từ TP HCM: Thời gian hơn 7 tiếng, du khách thường chọn các chuyến xe chạy ban đêm. Giá vé một chiều dao động từ 200.000 đồng đến 280.000 đồng.
@@ -2192,18 +1470,12 @@
 - Cà xỉu là loại hải sản thường sống tập trung ở sông và cửa biển, được muối cùng nước mắm đường để bảo quản.
 Du khách nên chọn hành trình 3 ngày 2 đêm để đi đến những địa điểm nổi bật của Hà Tiên và vẫn có thời gian nghỉ ngơi, thư giãn. Điều này giúp cân bằng giữa việc khám phá và thư giãn, tạo nên một chuyến du lịch hoàn hảo.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Lào Cai</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lào Cai cách Hà Nội khoảng 300 km và có thể di chuyển bằng đường bộ, tàu hỏa hoặc máy bay. 
+  </si>
+  <si>
+    <t>Lào Cai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lào Cai cách Hà Nội khoảng 300 km và có thể di chuyển bằng đường bộ, tàu hỏa hoặc máy bay. 
 - Đường bộ: Sử dụng cao tốc Hà Nội - Lào Cai (CT05), thời gian di chuyển khoảng 3,5 - 4 tiếng.
 - Tàu hỏa: Chạy hàng ngày từ Hà Nội tới Lào Cai (SP4), giá vé 280.000 đồng một lượt.
 - Xe khách: Có thể đi từ các tỉnh thành khác tới Hà Nội, sau đó di chuyển tiếp tới Lào Cai.
@@ -2216,18 +1488,12 @@
 - Thắng cố: món ăn nổi tiếng của người H'Mông, có tuổi đời gần 200 năm và được biến tấu với đa dạng nguyên liệu.
 - Xôi ngũ sắc: thứ xôi dẻo, thơm và màu sắc bắt mắt với năm màu chủ đạo.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Đăk Nông</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Để di chuyển đến Đăk Nông, bạn có thể lựa chọn các phương tiện như ôtô, xe khách, xe máy hay máy bay. Giá vé xe khách từ TP HCM đến Đăk Nông dao động 150.000 - 200.000 đồng. Đường đến Đăk Nông đẹp và an toàn.
+  </si>
+  <si>
+    <t>Đăk Nông</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Để di chuyển đến Đăk Nông, bạn có thể lựa chọn các phương tiện như ôtô, xe khách, xe máy hay máy bay. Giá vé xe khách từ TP HCM đến Đăk Nông dao động 150.000 - 200.000 đồng. Đường đến Đăk Nông đẹp và an toàn.
 Có nhiều lựa chọn lưu trú tại Dak Nong. Khách sạn cao cấp như Robin, Ngọc Thưởng, Dak Nong Lodge và Sunrise Hotel có giá từ 300.000 đến 1,5 triệu đồng một đêm. Homestay và farmstay như Yumin Farm house, Hoa Đất Garden và Phượng Vân Farm có giá từ 150.000 đến 1 triệu đồng một đêm.
 "Chơi đâu" ở Đăk Nông là một lựa chọn tuyệt vời với nhiều điểm đến thú vị. Một số điểm đến nổi bật bao gồm:
 - Vườn Quốc gia Tà Đùng: khám phá hồ nước trên cao, đi thuyền, thưởng ngoạn cảnh quan và khám phá hệ sinh thái phong phú.
@@ -2257,18 +1523,12 @@
 - Bơ sáp Đăk Mil dẻo, thơm ngon
 - Gạo Buôn Choáh với hương vị đặc trưng
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Quan Lạn</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Quan Lạn đẹp nhất vào mùa hè từ tháng 4 đến hết tháng 6 khi trời không quá nóng và không có bão. Mùa thu đẹp nhưng không khí lạnh hơn và mưa nhiều. Từ tháng 7 đến tháng 9, cần theo dõi dự báo thời tiết để tránh mưa bão, áp thấp nhiệt đới.
+  </si>
+  <si>
+    <t>Quan Lạn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quan Lạn đẹp nhất vào mùa hè từ tháng 4 đến hết tháng 6 khi trời không quá nóng và không có bão. Mùa thu đẹp nhưng không khí lạnh hơn và mưa nhiều. Từ tháng 7 đến tháng 9, cần theo dõi dự báo thời tiết để tránh mưa bão, áp thấp nhiệt đới.
 Để đến đảo Quan Lạn, du khách cần đi theo 2 chặng:
 - Chặng 1: Từ miền Nam hoặc miền Trung đi Hà Nội hoặc Hải Phòng, rồi đi đường bộ đến bến tàu Hòn Gai hoặc cảng Cái Rồng (khoảng 4 tiếng, giá 150.000 - 200.000 đồng).
 - Chặng 2: Từ cảng đi tàu cao tốc ra đảo (khoảng 45 phút, giá không rõ). Trên đảo, du khách có thể thuê xe máy (150.000 - 200.000 đồng/ngày), tuk tuk (700.000 đồng/ngày) hoặc xe điện (1.200.000 đồng/ngày).
@@ -2286,18 +1546,12 @@
 - Con đường chính: chụp ảnh như trời Âu.
 Tại Quan Lạn, bạn có thể thưởng thức các món hải sản độc đáo như sá sùng, cà ghim, cù kỳ. Bạn có thể ăn ngay tại khách sạn hoặc bãi biển, nhưng cần hỏi giá cả trước. Ngoài ra, có quán ăn dân cư ở bãi Quan Lạn, phục vụ theo suất từ 1.000.000 đồng cho 4 người.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Bà Rịa - Vũng Tàu</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bà Rịa - Vũng Tàu có hai mùa rõ rệt: mùa mưa (tháng 5-10) và mùa khô (tháng 11-4). Du lịch quanh năm có thể, nhưng đẹp nhất từ tháng 3 đến tháng 9 để tắm biển và thăm Côn Đảo. Thời tiết mát mẻ và không dầm dề.
+  </si>
+  <si>
+    <t>Bà Rịa - Vũng Tàu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bà Rịa - Vũng Tàu có hai mùa rõ rệt: mùa mưa (tháng 5-10) và mùa khô (tháng 11-4). Du lịch quanh năm có thể, nhưng đẹp nhất từ tháng 3 đến tháng 9 để tắm biển và thăm Côn Đảo. Thời tiết mát mẻ và không dầm dề.
 Từ TP HCM, du khách có thể đi xe máy, ôtô, tàu cao tốc, phà hoặc xe khách đến Vũng Tàu. Giá vé và thời gian di chuyển tùy thuộc vào phương tiện và điều kiện thời tiết. Từ Hà Nội, du khách đi máy bay hoặc tàu hoả đến TP HCM rồi lựa chọn phương tiện.
 Dưới đây là tóm tắt về các điểm du lịch ở Bà Rịa - Vũng Tàu:
 - Vũng Tàu: Bãi Tầm Dương, Bãi trước, núi Thị Vải, núi Dinh, địa đạo, Nhà Tròn, bãi biển Long Hải, núi Minh Đạm, chùa Hòn Một, bãi biển Dinh Cô, thiền viện Trúc Lâm Chân Nguyên, đèo Nước Ngọt.
@@ -2317,18 +1571,12 @@
 - Bún súng: Bún tươi, sợi nhỏ và rau sống cho vào tô, hải sản được trang trí trên mặt bún rồi chan nước dùng.
 - Hủ tiếu mỳ: Nước lèo trong vắt đậm đà, miếng sườn trắng mềm được nấu theo công thức riêng.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Hồ Ba Bể</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bắc Kạn cách Hà Nội 165 km, có hai đường di chuyển: quốc lộ 3 cũ (3 tiếng đi xe máy) và cao tốc Hà Nội - Thái Nguyên (2 tiếng đi ôtô). Xe khách từ bến xe Mỹ Đình (Hà Nội) đi đến Bắc Kạn và các điểm du lịch khác.
+  </si>
+  <si>
+    <t>Hồ Ba Bể</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bắc Kạn cách Hà Nội 165 km, có hai đường di chuyển: quốc lộ 3 cũ (3 tiếng đi xe máy) và cao tốc Hà Nội - Thái Nguyên (2 tiếng đi ôtô). Xe khách từ bến xe Mỹ Đình (Hà Nội) đi đến Bắc Kạn và các điểm du lịch khác.
 Hồ Ba Bể có thể đến quanh năm, mỗi mùa có nét đặc trưng riêng. Thời tiết đẹp nhất để du lịch là từ tháng 2 đến tháng 4, khi trời mát mẻ với nhiệt độ từ 25-30 độ. Đây cũng là thời điểm có nhiều lễ hội văn hóa.
 Ở khu vực hồ Ba Bể, có nhiều lựa chọn lưu trú với giá từ 150.000 đồng đến 1,2 triệu đồng cho phòng hai người. Các homestay địa phương gần hồ có ban công nhìn ra hồ, nhưng tiện nghi cơ bản. Cắm trại cũng là một lựa chọn với giá từ 1 đến 2 triệu đồng một người.
 Hồ Ba Bể là điểm đến lý tưởng cho du khách. Họ có thể thuê xuồng, kayak, SUP hoặc thuyền độc mộc để khám phá hồ và các điểm đến xung quanh. Giá thuê dao động từ 300.000 đến 3 triệu đồng tùy thời gian và dịch vụ.
@@ -2342,18 +1590,12 @@
 - Chuẩn bị đồ ăn vặt và nước uống vì không có nhiều đồ ăn và cửa hàng tạp hóa.
 - Đặt bữa ăn trước để đảm bảo."
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Hà Giang</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Khí hậu Hà Giang lạnh và ẩm ướt trong năm. Du lịch Hà Giang có thể vào bất kỳ mùa nào. Thời điểm đẹp nhất là:
+  </si>
+  <si>
+    <t>Hà Giang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khí hậu Hà Giang lạnh và ẩm ướt trong năm. Du lịch Hà Giang có thể vào bất kỳ mùa nào. Thời điểm đẹp nhất là:
 - Mùa thu (tháng 10-12): Lúa chín vàng, hoa tam giác mạch và cánh đồng cải nở sắc.
 - Mùa xuân (tháng 5-7): Hoa mơ, hoa mận nở trắng rừng và núi rừng xanh mướt.
 Để đến Hà Giang, bạn có thể chọn các phương tiện sau:
@@ -2405,18 +1647,12 @@
 - Trái chín mọng ngọt ngào
 - Lạp xưởng gác bếp được ướp muối, đường, bột ngọt, rượu trắng và mắc mật khô, mang hương vị đặc trưng khó quên.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Mũi Né</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mũi Né đẹp quanh năm, nhưng thời điểm đẹp nhất là từ tháng 4 đến tháng 8, khi nước biển trong xanh và mát lành. Từ tháng 8 đến tháng 12 thích hợp cho lướt ván và các môn thể thao mạo hiểm. Tháng 12 có thể mưa.
+  </si>
+  <si>
+    <t>Mũi Né</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mũi Né đẹp quanh năm, nhưng thời điểm đẹp nhất là từ tháng 4 đến tháng 8, khi nước biển trong xanh và mát lành. Từ tháng 8 đến tháng 12 thích hợp cho lướt ván và các môn thể thao mạo hiểm. Tháng 12 có thể mưa.
 Từ TP HCM, du khách có thể di chuyển đến Mũi Né bằng xe máy, xe khách, tàu hoặc ôtô. Các phương tiện phổ biến bao gồm:
 - Xe máy: đi theo cung đường ven biển, quãng đường khoảng 230 km, thời gian di chuyển khoảng 5-6 tiếng.
 - Xe khách: mua vé tại bến xe miền Đông, giá vé 130.000 đồng một người, thời gian di chuyển khoảng 5 tiếng.
@@ -2443,18 +1679,12 @@
 Du lịch phát triển tại Mũi Né đã tạo ra sự đa dạng trong dịch vụ lưu trú. Du khách có thể chọn từ homestay bình dân (500.000 đồng/đêm) đến khách sạn (700.000-1 triệu đồng/đêm) và các resort cao cấp như The Anam Mũi Né, Anantara Mui Ne, Pandanus Resort,...
 "Lưu ý": Sóng biển có thể mạnh hơn bình thường, nên chọn bãi biển lặng sóng và có biển báo an toàn để bơi. Buổi tối, khu du lịch Hòn Rơm có chợ chiều với hải sản nướng giá rẻ, là điểm đến lý tưởng cho du khách.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Kiên Giang</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Di chuyển tới Kiên Giang có nhiều lựa chọn:
+  </si>
+  <si>
+    <t>Kiên Giang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Di chuyển tới Kiên Giang có nhiều lựa chọn:
 - Đường bộ: Giá vé từ 200.000 - 300.000 đồng, thời gian 4,5 - 6,5 tiếng.
 - Đường thủy nội địa và biển: Giá vé từ 100.000 - 400.000 đồng, các hãng tàu như Superdong, Phú Quốc Express.
 - Sân bay Rạch Giá: Đường bay thẳng từ TP HCM, tần suất không cố định.
@@ -2482,18 +1712,12 @@
 - Cà xỉu: hải sản mềm và ngọt, được muối cùng nước mắm đường
 - Xôi: món ăn truyền thống với gạo nếp, trứng gà, đường và nước cốt dừa.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Bến Tre</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bến Tre có khí hậu nắng ấm quanh năm, du khách có thể ghé thăm bất cứ mùa nào. Thời điểm lý tưởng nhất là mùa hè (tháng 6, 7, 8), khi du khách vừa được ngắm cảnh thiên nhiên đa sắc màu và thưởng thức trái cây tươi hái trên cây.
+  </si>
+  <si>
+    <t>Bến Tre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bến Tre có khí hậu nắng ấm quanh năm, du khách có thể ghé thăm bất cứ mùa nào. Thời điểm lý tưởng nhất là mùa hè (tháng 6, 7, 8), khi du khách vừa được ngắm cảnh thiên nhiên đa sắc màu và thưởng thức trái cây tươi hái trên cây.
 Để di chuyển từ TP HCM đến Bến Tre, bạn có thể:
 - Đi xe khách từ bến xe Miền Tây với giá 85.000-140.000 đồng, thời gian 1,5-2 tiếng.
 - Phượt bằng xe máy hoặc xe ôtô tự lái, xuất phát vào sáng sớm hoặc sau 9h sáng để tránh đông.
@@ -2524,18 +1748,12 @@
 - Trái cây như sầu riêng, chôm chôm, nhãn, măng cụt
 - Nấm mối dai, vị ngọt, mùi thơm đặc trưng
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>Đà Nẵng</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Đà Nẵng có hai mùa rõ rệt: mùa khô từ tháng 1 đến tháng 7 và mùa mưa từ tháng 8 đến tháng 12. Thời điểm đẹp nhất để du lịch Đà Nẵng là từ đầu tháng 4 đến giữa tháng 9, khi có tiết trời mát mẻ và giá cả dịch vụ bình ổn.
+  </si>
+  <si>
+    <t>Đà Nẵng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đà Nẵng có hai mùa rõ rệt: mùa khô từ tháng 1 đến tháng 7 và mùa mưa từ tháng 8 đến tháng 12. Thời điểm đẹp nhất để du lịch Đà Nẵng là từ đầu tháng 4 đến giữa tháng 9, khi có tiết trời mát mẻ và giá cả dịch vụ bình ổn.
 Du khách đến Đà Nẵng có thể di chuyển bằng máy bay, tàu hỏa hoặc tự lái ôtô. Giá vé máy bay từ 1,3-3 triệu đồng, tàu hỏa từ 600.000-1,1 triệu đồng. Tự lái ôtô cần ít nhất một tuần và hai tài xế thay phiên cầm lái.
 Du lịch tại Đà Nẵng phát triển nhanh chóng với nhiều lựa chọn lưu trú như khách sạn, homestay, căn hộ và phòng tập thể. Giá phòng dao động từ 500.000 đồng đến 10.000.000 đồng một đêm. Các resort và khách sạn 5 sao nổi tiếng ở Đà Nẵng bao gồm InterContinental và Hyatt Regency.
 Địa điểm đẹp ngoài thành phố Đà Nẵng bao gồm bán đảo Sơn Trà, núi Ngũ Hành Sơn, rạn Nam Ô, đèo Hải Vân. Bán đảo Sơn Trà có cánh rừng nguyên sinh rộng lớn và nhiều bãi tắm đẹp như Tiên Sa, Đá Đen, bãi Bụt. Du khách có thể tham gia nhiều hoạt động hấp dẫn như lặn biển ngắm san hô, câu cá cùng ngư dân, chiêm ngưỡng thành phố từ trực thăng, trên đỉnh Bàn Cờ. Nơi đây cũng là nơi sinh sống của hàng trăm loài động vật, trong đó có voọc chà vá chân nâu được mệnh danh là "nữ hoàng linh trưởng" trên bán đảo Sơn Trà.
@@ -2561,18 +1779,12 @@
 - Sữa chua muối: món ăn vặt mềm, không quá béo, giá 1.000 đồng một hũ.
 Đà Nẵng có nhiều đặc sản nổi tiếng như tré ông Chánh, tré bà Đệ, bánh khô mè Cẩm Lệ, rong biển Mỹ Khê, nước mắm Nam Ô, hải sản tươi sống hoặc khô mực, khô cá. Những món này dễ tìm mua và đóng gói hành lý làm quà.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Mù Cang Chải</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mù Cang Chải đẹp quanh năm. Các mùa đẹp nhất bao gồm:
+  </si>
+  <si>
+    <t>Mù Cang Chải</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mù Cang Chải đẹp quanh năm. Các mùa đẹp nhất bao gồm:
 - Mùa đổ nước (cuối tháng 5 - đầu tháng 6): Ruộng bậc thang như "tráng gương" soi cả đất trời.
 - Mùa lúa chín (tháng 9 - tháng 10): Bức tranh vùng cao đầy màu sắc.
 - Cuối tháng 12: Mùa đào rừng đua nở.
@@ -2599,18 +1811,12 @@
 Mù Cang Chải nổi tiếng với các đặc sản như xôi nếp nương, nhộng ong rừng, măng đắng xào, thịt lợn đen nướng, cá suối nướng, cá hồi, cá tầm Khau Phạ và cải mèo. Du khách cũng có thể mua Cốm xanh Tú Lệ làm quà với giá 90.000 đồng/kg.
 'Lưu ý' bao gồm các hành động có trách nhiệm như không xả rác, không chen lấn chụp ảnh và không cho trẻ con dọc đường tiền hay quà bánh. Những hành động này giúp bảo vệ môi trường và đảm bảo an toàn cho mọi người.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Bảo Lộc</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bảo Lộc có hai mùa chính: mùa khô và mùa mưa. Mùa khô có nắng nhiều, nhiệt độ trung bình 20 độ C, thuận lợi cho du lịch. Mùa mưa từ tháng 4 đến tháng 11, với mưa nhiều nhất từ tháng 6 đến tháng 9. Nhiệt độ trung bình cả năm 21-22 độ C.
+  </si>
+  <si>
+    <t>Bảo Lộc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bảo Lộc có hai mùa chính: mùa khô và mùa mưa. Mùa khô có nắng nhiều, nhiệt độ trung bình 20 độ C, thuận lợi cho du lịch. Mùa mưa từ tháng 4 đến tháng 11, với mưa nhiều nhất từ tháng 6 đến tháng 9. Nhiệt độ trung bình cả năm 21-22 độ C.
 Bảo Lộc cách TP HCM 195 km về hướng tây nam và cách Đà Lạt 110 km về hướng bắc. Du khách có thể di chuyển bằng ôtô cá nhân, xe giường nằm hoặc limousine. Sân bay gần nhất là Liên Khương, từ đó mất khoảng 2 tiếng ôtô.
 Bảo Lộc có đa dạng khu lưu trú, từ homestay, khách sạn 2-4 sao đến khu cắm trại. Giá phòng từ 300.000 đồng đến 1,2 triệu đồng. Khu cắm trại có mức giá từ 400.000 đồng đến 800.000 đồng cho một người qua đêm.
 "Chơi đâu" là một khu du lịch tại Bảo Lộc, Lâm Đồng, với nhiều điểm tham quan thú vị. Khu du lịch Dambri có thác nước đẹp và lớn nhất khu vực Tây Nguyên, cùng với hệ thống máng trượt dài 1.650 m qua rừng nguyên sinh. Ngoài ra, còn có Tu viện Bát Nhã, Chùa Linh Quy Pháp Ấn, Núi Đại Bình, đồi chè Tâm Châu, đèo Lộc Thành và hồ nước "vùng đất chocolate".
@@ -2621,18 +1827,12 @@
 - Nộm bò khô với đu đủ xanh, gan bò khô, khô bò xé sợ và bánh phồng tôm.
 Đoạn đường 1 km đến chùa Linh Quy Pháp Ấn khá hẹp, yêu cầu du khách đi bộ. Hãy lưu ý trang phục phù hợp để đảm bảo an toàn và thoải mái trong hành trình đến chùa.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>Quảng Ngãi</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Thời gian thích hợp cho du lịch Quảng Ngãi là từ tháng 4 đến tháng 8. Đây là thời điểm khô ráo, nắng đẹp, ít mưa bão, thuận tiện di chuyển và tham gia các hoạt động giải trí.
+  </si>
+  <si>
+    <t>Quảng Ngãi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thời gian thích hợp cho du lịch Quảng Ngãi là từ tháng 4 đến tháng 8. Đây là thời điểm khô ráo, nắng đẹp, ít mưa bão, thuận tiện di chuyển và tham gia các hoạt động giải trí.
 Quảng Ngãi không có sân bay, sân bay gần nhất là Chu Lai (Quảng Nam), cách thành phố khoảng 40 km. Có thể di chuyển từ Chu Lai đến Quảng Ngãi bằng taxi, ôtô buýt, xe ôtô dịch vụ hoặc tàu Thống Nhất. Xe máy là phương tiện thuận tiện nhất trong thành phố.
 Quảng Ngãi không có nhiều khách sạn sang trọng. Các khu lưu trú chia theo khu vực, tùy nhu cầu của du khách. Giá phòng tại TP Quảng Ngãi dao động từ 200.000 - 700.000 đồng một đêm. Các khu vực ngoại ô có resort và homestay với giá từ 500.000 - 1,2 triệu đồng một đêm.
 "Chơi đâu" là một câu hỏi thường được đặt ra khi du khách đến với Quảng Ngãi. Tỉnh này có nhiều điểm du lịch hấp dẫn và đa dạng, từ biển đến núi, từ lịch sử đến văn hóa. Dưới đây là một số điểm du lịch nổi bật ở Quảng Ngãi:
@@ -2655,18 +1855,12 @@
 - **Hải sản**: Cua, nhum biển, hàu sữa... là những món ăn không thể bỏ qua, giá cả phải chăng.
 - **Kẹo gương**: Món ăn theo chân người Hoa, giòn, vị ngọt béo bùi, kết hợp cùng trà sen rất phù hợp.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>Kon Tum</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kon Tum không có sân bay, sân bay gần nhất là Pleiku (Gia Lai), cách khoảng 45 km. Du khách có thể di chuyển bằng ôtô (1 tiếng), xe buýt (30.000 đồng một chiều), taxi (500.000 - 650.000 đồng một chiều) hoặc xe giường nằm (500.000 - 750.000 đồng).
+  </si>
+  <si>
+    <t>Kon Tum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kon Tum không có sân bay, sân bay gần nhất là Pleiku (Gia Lai), cách khoảng 45 km. Du khách có thể di chuyển bằng ôtô (1 tiếng), xe buýt (30.000 đồng một chiều), taxi (500.000 - 650.000 đồng một chiều) hoặc xe giường nằm (500.000 - 750.000 đồng).
 Tại Kon Tum, du khách có thể chọn từ các khách sạn nhỏ dưới 3 sao hoặc homestay. Giá phòng đôi tại thành phố Kon Tum dao động từ 300.000 - 500.000 đồng. Tại Măng Đen, có khách sạn lớn Golden Boutique Hotel với giá phòng đôi từ 1,5 triệu đồng.
 "Tham quan" là một phần quan trọng của du lịch tại Kon Tum. Các điểm tham quan nổi bật bao gồm:
 - Nhà thờ Chánh tòa (Nhà thờ gỗ): được xây dựng theo kiến trúc Roman kết hợp với phong cách nhà sàn truyền thống của đồng bào Ba Na.
@@ -2687,18 +1881,12 @@
 - Xôi măng với màu vàng bắt mắt, ăn kèm với măng xào, măng luộc, vừng hoặc thịt kho.
 Đường lên Măng Đen có độ dốc và ngoằn ngoèo, vì vậy người đi xe tự lái cần cẩn trọng để đảm bảo an toàn.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>Nam Định</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nam Định có bốn mùa rõ rệt. Thời điểm đẹp nhất để ghé thăm là vào rằm tháng Giêng, khi diễn ra lễ hội Khai Ấn Đền Trần, thu hút hàng chục nghìn du khách tham quan trước và trong đêm lễ chính.
+  </si>
+  <si>
+    <t>Nam Định</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nam Định có bốn mùa rõ rệt. Thời điểm đẹp nhất để ghé thăm là vào rằm tháng Giêng, khi diễn ra lễ hội Khai Ấn Đền Trần, thu hút hàng chục nghìn du khách tham quan trước và trong đêm lễ chính.
 Di chuyển từ Hà Nội đến Nam Định có thể thực hiện bằng đường bộ và sắt. Đường sắt có 3-4 chuyến tàu mỗi ngày, giá vé 90.000 đồng một chiều. Đường bộ mất khoảng 2-2,5 tiếng, vé xe khách từ 60.000 đồng một người.
 "Chơi gì" tại Nam Định là một câu hỏi thú vị. Thành phố Nam Định có nhiều địa điểm du lịch hấp dẫn như:
 - Đền Trần: thờ cúng các vua Trần và quan lại có công phù tá
@@ -2724,18 +1912,12 @@
 - Bún tóp mỡ, bún đũa, phở xíu, bánh bèo và bánh cuốn tại chợ Ngõ Ngang.
 - Nem ốc móng tay ở Giao Thủy.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>Tiền Giang</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Để di chuyển đến Mỹ Tho, du khách có thể chọn các phương tiện sau:
+  </si>
+  <si>
+    <t>Tiền Giang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Để di chuyển đến Mỹ Tho, du khách có thể chọn các phương tiện sau:
 - Đường hàng không: Sân bay TP HCM và Cần Thơ, sau đó đi xe khách đến Mỹ Tho.
 - Xe khách: Giá vé 100.000 - 150.000 đồng một chiều, thời gian di chuyển khoảng 2 tiếng.
 - Xe máy hoặc ôtô cá nhân: Giá thuê xe máy khoảng 100.000 - 150.000 đồng một ngày.
@@ -2751,18 +1933,12 @@
 8. **Khu du lịch biển Tân Thành**: Một khu du lịch biển nổi tiếng với nghề nuôi nghêu, có nhiều hàng quán lợp mái lá trên bãi biển cho du khách thưởng thức nghêu và các loại hải sản khác.
 Ẩm thực Tiền Giang nổi tiếng với các món ăn như hủ tiếu, bún gỏi già, bánh bèo nước cốt dừa, cháo rắn, phở, bún bò, lẩu riêu cua, hải sản. Hủ tiếu Mỹ Tho đặc trưng với sợi nhỏ, khô, dai, vị chua nhẹ, nước dùng màu vàng nhạt.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>Bắc Kạn</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bắc Kạn cách Hà Nội 165 km. Có hai đường di chuyển: QL3 cũ (3 tiếng) và cao tốc Hà Nội - Thái Nguyên (2 tiếng). Xe khách từ bến Mỹ Đình (Hà Nội) đi tuyến Hà Nội - Bắc Kạn hoặc Cao Bằng, qua điểm du lịch nổi tiếng hồ Ba Bể.
+  </si>
+  <si>
+    <t>Bắc Kạn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bắc Kạn cách Hà Nội 165 km. Có hai đường di chuyển: QL3 cũ (3 tiếng) và cao tốc Hà Nội - Thái Nguyên (2 tiếng). Xe khách từ bến Mỹ Đình (Hà Nội) đi tuyến Hà Nội - Bắc Kạn hoặc Cao Bằng, qua điểm du lịch nổi tiếng hồ Ba Bể.
 Tại Bắc Kạn, du khách có thể lựa chọn lưu trú tại thành phố với các điểm như nhà nghỉ Phúc Anh, khách sạn Phương Nam, Hưng Vân và Nam Hotel. Giá lưu trú dao động từ 200.000 đến 400.000 đồng cho một đêm.
 Bắc Kạn là một điểm đến du lịch hấp dẫn với nhiều địa điểm thú vị. Một số điểm nổi bật bao gồm:
 - Hồ Ba Bể: hồ nước ngọt tự nhiên lớn nhất Việt Nam, thuộc Vườn Quốc gia Ba Bể.
@@ -2782,18 +1958,12 @@
 - Cá nướng, rau sắng, miến dong Na Rì, trám đen, chè shan tuyết.
 Đường đi lại có nhiều đoạn đèo dốc ngoằn ngoèo, đòi hỏi lái xe phải giữ an toàn.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>Quảng Nam</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Có nhiều phương tiện để đến Quảng Nam, bao gồm:
+  </si>
+  <si>
+    <t>Quảng Nam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Có nhiều phương tiện để đến Quảng Nam, bao gồm:
 - Đường hàng không: Sân bay Đà Nẵng hoặc Chu Lai
 - Đường sắt: Các đôi tàu Thống Nhất từ Hà Nội và TP HCM
 - Đường bộ: Xe khách, xe buýt, taxi, xe dịch vụ
@@ -2816,18 +1986,12 @@
 - Cơm gà: Món ăn phổ biến ở Tam Kỳ và Hội An, được làm từ cơm dẻo, thơm, thịt gà chắc, ngậy, lòng gà đậm vị và đu đủ bào giòn.
 - Các món phổ biến khác như bánh tráng cuốn thịt heo, bánh canh, bánh mì, bánh bột lọc và nem nướng.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>Bình Liêu</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bình Liêu đẹp vào mọi mùa. Mùa xuân có lễ hội đặc sắc và phong hương lá đỏ. Mùa hè có thác nước và ruộng bậc thang xanh. Mùa thu có đồng cỏ lau trổ bông thu hút du khách. Mùa đông có băng giá, và cuối năm có lễ hội hoa sở và lễ mừng cơm mới.
+  </si>
+  <si>
+    <t>Bình Liêu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bình Liêu đẹp vào mọi mùa. Mùa xuân có lễ hội đặc sắc và phong hương lá đỏ. Mùa hè có thác nước và ruộng bậc thang xanh. Mùa thu có đồng cỏ lau trổ bông thu hút du khách. Mùa đông có băng giá, và cuối năm có lễ hội hoa sở và lễ mừng cơm mới.
 Dịch vụ lưu trú ở Bình Liêu hạn chế. Bạn có thể chọn homestay bản địa như A Dào, A Píu, Hoàng Sằn, Sông Moóc với giá từ 50.000 đồng/đêm (phòng tập thể) hoặc nhà nghỉ bình dân từ 200.000 - 400.000 đồng/đêm.
 Để đến Bình Liêu, phượt thủ có thể đi theo hai cách:
 - Xe máy: Hà Nội - Quốc lộ 1 - Quốc lộ 18 - Quế Võ - Phả Lại - Đông Triều - Uông Bí - Hạ Long - Cẩm Phả - Cửa Ông - Mông Dương - Tiên Yên - Quốc lộ 18C (28 km).
@@ -2842,18 +2006,12 @@
 - Ghé thăm chợ phiên và trải nghiệm văn hóa bản địa
 - Khám phá các điểm du lịch khác như đỉnh Quảng Nam Châu, núi Kéo Lạn, núi Cao Ba Lanh...
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>Quảng Trị</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Quảng Trị không có sân bay, du khách cần bay tới Quảng Bình hoặc Huế. Từ Huế, có thể đi xe hoặc taxi 1 tiếng 45 phút, từ Quảng Bình mất 2 tiếng. Du khách cũng có thể đi xe khách hoặc tàu Thống Nhất từ Bắc - Nam. Giá vé xe khách từ 400.000 - 800.000 đồng, tàu từ 400.000 - 1,3 triệu đồng.
+  </si>
+  <si>
+    <t>Quảng Trị</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quảng Trị không có sân bay, du khách cần bay tới Quảng Bình hoặc Huế. Từ Huế, có thể đi xe hoặc taxi 1 tiếng 45 phút, từ Quảng Bình mất 2 tiếng. Du khách cũng có thể đi xe khách hoặc tàu Thống Nhất từ Bắc - Nam. Giá vé xe khách từ 400.000 - 800.000 đồng, tàu từ 400.000 - 1,3 triệu đồng.
 Các khu lưu trú tại Quảng Trị tập trung ở thành phố Đông Hà, thị xã Quảng Trị và bãi biển Cửa Tùng, Cửa Việt. Giá khách sạn dao động từ 150.000 đồng đến 1,2 triệu đồng một đêm, tùy thuộc vào loại hình và chất lượng.
 Quảng Trị là một tỉnh nổi tiếng với nhiều di tích lịch sử và địa điểm du lịch hấp dẫn. Một số điểm đến nổi bật bao gồm:
 - Cầu Hiền Lương: Một biểu tượng của sự thống nhất đất nước
@@ -2875,18 +2033,12 @@
 - Thịt trâu nướng lá trơng: có hương vị lạ và vị cay nhẹ.
 - Bắp ngô: được chế biến từ hạt ngô nếp và có vị ngọt ngào, bùi và thơm.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>Vĩnh Long</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Vĩnh Long cách TP HCM và Cần Thơ khoảng 100 km và 30 km. Du khách có thể di chuyển bằng máy bay, ôtô, xe khách, xe máy, taxi hoặc xe buýt. Giá vé và thời gian di chuyển tùy thuộc vào phương tiện và điểm xuất phát.
+  </si>
+  <si>
+    <t>Vĩnh Long</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vĩnh Long cách TP HCM và Cần Thơ khoảng 100 km và 30 km. Du khách có thể di chuyển bằng máy bay, ôtô, xe khách, xe máy, taxi hoặc xe buýt. Giá vé và thời gian di chuyển tùy thuộc vào phương tiện và điểm xuất phát.
 Khách sạn ở Vĩnh Long tập trung ở trung tâm thành phố, đa dạng loại phòng từ nhà nghỉ, homestay đến khách sạn 2-3 sao. Các khách sạn được đánh giá cao như Sài Gòn Vĩnh Long, Cửu Long, Vinh Sang, giá phòng từ 400.000 - 1,1 triệu đồng một đêm.
 Vĩnh Long là một tỉnh miền Tây Nam Bộ có nhiều điểm du lịch hấp dẫn. Dưới đây là một số điểm du lịch nổi bật:
 - Khu du lịch sinh thái Vinh Sang: có cảnh quan xanh giống những trang trại trồng cây ăn trái.
@@ -2908,18 +2060,12 @@
 - Bánh tráng nem: làm bằng bột gạo, không phụ gia, mềm dẻo, vị mặn nhẹ.
 Vĩnh Long nổi tiếng với các đặc sản nhiệt đới như thanh trà và bưởi Năm Roi. Thanh trà có hai loại chua và ngọt, giá khoảng 50.000 đồng/kg. Bưởi Năm Roi Vĩnh Long được trồng ở xã Mỹ Hòa, thị xã Bình Minh, nổi tiếng về độ ngon và ngọt.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>Thanh Hóa</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Thanh Hóa có hai mùa rõ rệt: mùa nóng (tháng 5-10) và mùa lạnh (tháng 11-4). Thời điểm đẹp nhất để du lịch là từ tháng 3 đến tháng 8. Mùa hè thích hợp cho bãi biển, mùa thu mát mẻ, giá cả ổn định hơn.
+  </si>
+  <si>
+    <t>Thanh Hóa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh Hóa có hai mùa rõ rệt: mùa nóng (tháng 5-10) và mùa lạnh (tháng 11-4). Thời điểm đẹp nhất để du lịch là từ tháng 3 đến tháng 8. Mùa hè thích hợp cho bãi biển, mùa thu mát mẻ, giá cả ổn định hơn.
 Di chuyển đến Thanh Hóa có nhiều phương tiện và giá vé khác nhau tùy thuộc vào vị trí xuất phát. Từ Hà Nội, giá vé tàu hỏa dao động từ 140.000 - 280.000 đồng, xe khách từ 150.000 - 200.000 đồng. Từ TP HCM, máy bay là lựa chọn tiện lợi nhất với giá vé khoảng 2-3 triệu đồng.
 Tại Thanh Hóa, khách sạn trung tâm thành phố có giá từ 600.000 - 1 triệu đồng/đêm. Các khu du lịch biển như Sầm Sơn, Hải Tiến, Bãi Đông có giá cao hơn từ 800.000 - 4 triệu đồng/đêm. Nhà nghỉ bình dân giá từ 300.000 đồng/đêm trở lên.
 "Chơi đâu" là một câu hỏi phổ biến khi tìm kiếm điểm đến du lịch. Tại Thanh Hóa, có nhiều lựa chọn hấp dẫn như:
@@ -2940,18 +2086,12 @@
 - Gỏi cá nhệch: đặc sản của vùng Nga Sơn, cá nhệch được bóp với riềng sả và trộn với thính gạo, ăn kèm chẻo làm từ xương cá.
 - Bánh răng bừa: đặc sản tiến vua, được gói bằng lá dong hoặc lá chuối, ăn kèm nước mắm nguyên chất pha chanh, ớt hoặc tiêu bắc.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>Sơn La</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Di chuyển đến Sơn La từ Hà Nội và các tỉnh phía Bắc có thể thực hiện bằng đường bộ hoặc đường hàng không. Đường bộ mất khoảng 6 tiếng 30 phút, giá vé xe khách từ 150.000 - 350.000 đồng. Sân bay gần nhất là Điện Biên, cách Sơn La 170 km.
+  </si>
+  <si>
+    <t>Sơn La</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Di chuyển đến Sơn La từ Hà Nội và các tỉnh phía Bắc có thể thực hiện bằng đường bộ hoặc đường hàng không. Đường bộ mất khoảng 6 tiếng 30 phút, giá vé xe khách từ 150.000 - 350.000 đồng. Sân bay gần nhất là Điện Biên, cách Sơn La 170 km.
 Khách sạn ở Sơn La chủ yếu nằm ở trung tâm thành phố. Giá phòng từ thấp đến cao: nhà nghỉ và homestay (dưới 200.000 đồng), khách sạn 2-3 sao (300.000 - 500.000 đồng), khách sạn cao cấp (700.000 - 1,2 triệu đồng) mỗi đêm.
 Dưới đây là tóm tắt về "Tham quan" tại Sơn La:
 - Mộc Châu: điểm du lịch nổi tiếng với vẻ đẹp thiên nhiên trong lành, hoa mơ, mận, đào khoe sắc rực rỡ vào đầu năm.
@@ -2968,18 +2108,12 @@
 - Nộm da trâu: da trâu được sơ chế cầu kỳ và ướp gia vị đặc trưng.
 - Cháo mắc nhung: cháo được nấu với mắc nhung, thịt băm và gia vị.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>Cù Lao Chàm</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cù Lao Chàm cách Đà Nẵng 45 km và cách Cửa Đại 18 km. Có hai phương tiện di chuyển: cano (15-20 phút, 350.000 đồng/người) và tàu gỗ (1 tiếng rưỡi). Du khách có thể đặt tour trọn gói từ 500.000 - 700.000 đồng/người hoặc thuê xe máy từ 120.000 - 150.000 đồng/ngày.
+  </si>
+  <si>
+    <t>Cù Lao Chàm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cù Lao Chàm cách Đà Nẵng 45 km và cách Cửa Đại 18 km. Có hai phương tiện di chuyển: cano (15-20 phút, 350.000 đồng/người) và tàu gỗ (1 tiếng rưỡi). Du khách có thể đặt tour trọn gói từ 500.000 - 700.000 đồng/người hoặc thuê xe máy từ 120.000 - 150.000 đồng/ngày.
 Du khách đến Cù Lao Chàm thường tham quan trong ngày, nhưng nếu muốn ở lại qua đêm, có thể thuê homestay hoặc nhà nghỉ bình dân ở khu vực bãi Làng và bãi Hương. Giá phòng từ 200.000 đến 500.000 đồng một đêm. Có nhiều địa chỉ homestay được gợi ý.
 "Cù Lao Chàm nổi tiếng với nhiều bãi biển đẹp, cát trắng và nước xanh ngắt. Du khách có thể tham gia các hoạt động như lặn ngắm san hô, bay dù, thăm chùa Hải Tạng, giếng Cổ Champa và các hòn đảo khác. Các bãi biển như bãi Làng, bãi Hương, bãi Ông và bãi Bắc là những điểm đến phổ biến. Chợ Tân Hiệp là nơi bán các đặc sản rừng, biển và quà lưu niệm."
 Cù Lao Chàm là nơi có nhiều đặc sản nổi tiếng. Một số món đặc sản bao gồm:
@@ -2992,18 +2126,12 @@
 - Bảo vệ hệ sinh thái biển khi lặn ngắm san hô.
 - Tham khảo ý kiến bác sĩ nếu mắc bệnh tim mạch hoặc huyết áp trước khi tham gia lặn biển.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>Bình Phước</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Trung tâm Bình Phước là thành phố Đồng Xoài, cách TP HCM khoảng 120 km. Để di chuyển đến Bình Phước, bạn có thể lựa chọn xe khách hoặc ôtô cá nhân. Giá vé xe khách từ 100.000 đến 180.000 đồng, thời gian chạy khoảng 3-4 tiếng.
+  </si>
+  <si>
+    <t>Bình Phước</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trung tâm Bình Phước là thành phố Đồng Xoài, cách TP HCM khoảng 120 km. Để di chuyển đến Bình Phước, bạn có thể lựa chọn xe khách hoặc ôtô cá nhân. Giá vé xe khách từ 100.000 đến 180.000 đồng, thời gian chạy khoảng 3-4 tiếng.
 Tại Bình Phước, có nhiều lựa chọn lưu trú với giá đa dạng. Khách sạn cao cấp có giá từ 550.000 đến 3,4 triệu đồng một đêm. Còn các nhà nghỉ hoặc khách sạn 1-2 sao có giá từ 150.000 đến 500.000 đồng một đêm. Hoặc có thể chọn lưu trú giữa rừng với giá 100.000 đồng một đêm.
 Bình Phước là một tỉnh có nhiều điểm du lịch hấp dẫn, bao gồm:
 - Vườn quốc gia Bù Gia Mập: nơi có thác Đắk Mai, hồ Hoa Mai và nhiều loài động thực vật quý hiếm.
@@ -3029,18 +2157,12 @@
 Món ăn này thể hiện sự tổng hòa của nhiều hương vị từ thiên nhiên.
 Bình Phước nổi tiếng với các đặc sản như hạt điều, cà phê và quýt đường Tân Thành. Hạt điều là thủ phủ trồng hạt điều lớn nhất, cà phê có hương vị đậm đà và quýt đường có vị ngọt thanh, chua nhẹ. Đây là món quà lý tưởng.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>Khánh Hòa</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Khánh Hòa có nhiều phương tiện di chuyển thuận tiện:
+  </si>
+  <si>
+    <t>Khánh Hòa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khánh Hòa có nhiều phương tiện di chuyển thuận tiện:
 - Đường hàng không: Sân bay Cam Ranh cách Nha Trang 35km, giá vé từ 3-6 triệu đồng.
 - Đường sắt: Giá vé tàu Thống Nhất từ 270.000-1,5 triệu đồng.
 - Đường bộ: Giá vé xe từ Hà Nội 800.000-1 triệu đồng, từ TP HCM 250.000-500.000 đồng.
@@ -3054,18 +2176,12 @@
 - Bánh căn nướng bằng khuôn đất nung, ăn kèm nước mắm chua ngọt.
 Đặc sản yến được yêu thích vì bổ dưỡng và tốt cho sức khỏe. Phù hợp với người mới ốm dậy, phụ nữ, trẻ em suy dinh dưỡng. Yến được chế biến thành nhiều món ăn như chưng đường phèn, nấu súp, nấu chè. Mua tại cơ sở được Bộ NN và PTNT công nhận chất lượng.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>Tú Lệ</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mùa nước đổ ở Tú Lệ đẹp nhất vào tháng 5, với những thửa ruộng bậc thang như gương trời giữa núi rừng Tây Bắc. Tháng 9-10 hàng năm là thời điểm đẹp nhất để ngắm trọn mùa vàng Tú Lệ, với vẻ đẹp riêng biệt.
+  </si>
+  <si>
+    <t>Tú Lệ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mùa nước đổ ở Tú Lệ đẹp nhất vào tháng 5, với những thửa ruộng bậc thang như gương trời giữa núi rừng Tây Bắc. Tháng 9-10 hàng năm là thời điểm đẹp nhất để ngắm trọn mùa vàng Tú Lệ, với vẻ đẹp riêng biệt.
 Đường đến Tú Lệ cách Hà Nội khoảng 250 km, mất 6 tiếng ôtô. Có hai cung đường phổ biến: cao tốc Hà Nội - Lào Cai qua Yên Bái hoặc cao tốc Láng Hòa Lạc - Sơn Tây - Ba Vì - cầu Trung Hà qua QL32. Từ Nghĩa Lộ, còn 50 km đến Tú Lệ.
 Du khách đến Tú Lệ thường kết hợp thăm Mù Cang Chải, Chế Cu Nha. Bạn có thể lựa chọn nhà nghỉ, homestay tùy theo lịch trình. Gợi ý khu nghỉ dưỡng Le Champ, nhà nghỉ Suối Tiên, khách sạn Phố Núi, homestay Nhận Thịnh. Liên hệ trực tiếp với homestay, nhà nghỉ vào mùa cao điểm.
 Tú Lệ là một điểm du lịch nổi tiếng ở Yên Bái, với nhiều trải nghiệm thú vị:
@@ -3076,18 +2192,12 @@
 - Chinh phục những trò cảm giác mạnh như zipline và leo núi
 - Ngắm cảnh đẹp của thị trấn Tú Lệ vào ban đêm.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>Bạc Liêu</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bạc Liêu có thể đến quanh năm, nhưng lý tưởng nhất là vào dịp lễ hội từ tháng 2 đến tháng 4 Âm lịch. Đặc biệt, lễ hội Ok Om Bok vào rằm tháng 10 là một trải nghiệm thú vị và là một trong ba lễ hội lớn nhất của người Khmer.
+  </si>
+  <si>
+    <t>Bạc Liêu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bạc Liêu có thể đến quanh năm, nhưng lý tưởng nhất là vào dịp lễ hội từ tháng 2 đến tháng 4 Âm lịch. Đặc biệt, lễ hội Ok Om Bok vào rằm tháng 10 là một trải nghiệm thú vị và là một trong ba lễ hội lớn nhất của người Khmer.
 Di chuyển đến Bạc Liêu có thể thực hiện theo các cách sau:
 - Từ TP HCM: Xe khách Phương Trang, Hoàng Yến... (giá 190.000 - 210.000 đồng), mất 6 giờ.
 - Từ miền Bắc và miền Trung: Bay đến Cần Thơ, sau đó xe khách đến Bạc Liêu (giá 80.000 - 100.000 đồng), mất 2 tiếng.
@@ -3120,18 +2230,12 @@
 - Bánh tằm Ngan Dừa với gạo bụi đỏ, thịt ba rọi và gan heo
 - Xá bấu (củ cải muối) dùng để kết hợp với cháo trắng.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>VQG Cát Tiên</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Thời điểm thích hợp nhất để đến Vườn quốc gia Cát Tiên là từ tháng 11 đến tháng 5. Đây là mùa khô, thuận tiện đi lại và khám phá vẻ đẹp thiên nhiên. Các tháng còn lại có thể mưa, nên cân nhắc và xem dự báo thời tiết trước khi đến.
+  </si>
+  <si>
+    <t>VQG Cát Tiên</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thời điểm thích hợp nhất để đến Vườn quốc gia Cát Tiên là từ tháng 11 đến tháng 5. Đây là mùa khô, thuận tiện đi lại và khám phá vẻ đẹp thiên nhiên. Các tháng còn lại có thể mưa, nên cân nhắc và xem dự báo thời tiết trước khi đến.
 Để đến vườn quốc gia Cát Tiên, du khách có thể chọn phương tiện di chuyển đường bộ như ôtô tự lái, xe khách, xe dịch vụ hoặc xe máy. Thời gian di chuyển từ TP HCM khoảng bốn tiếng. Trong vườn, du khách có thể thuê xe đạp hoặc mang xe cá nhân.
 Vườn quốc gia Cát Tiên cung cấp các dịch vụ như:
 - Khách sạn, cắm trại, nhà hàng
@@ -3158,18 +2262,12 @@
 - Cấm hành động như săn bắn, tắm suối, mang chất độc hại, gây cháy nổ.
 - Chọn trang phục gọn gàng, đi giày đế bằng.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>Côn Đảo</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Thời gian đẹp nhất để khám phá Côn Đảo là từ tháng 3 đến tháng 9. Lúc này, biển êm, gió nhỏ và thích hợp cho lặn biển và chụp ảnh. Tháng 7-9 là mùa sinh sản của rùa biển, còn tháng 10-3 là mùa gió chướng.
+  </si>
+  <si>
+    <t>Côn Đảo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thời gian đẹp nhất để khám phá Côn Đảo là từ tháng 3 đến tháng 9. Lúc này, biển êm, gió nhỏ và thích hợp cho lặn biển và chụp ảnh. Tháng 7-9 là mùa sinh sản của rùa biển, còn tháng 10-3 là mùa gió chướng.
 Di chuyển đến Côn Đảo có nhiều lựa chọn:
 - Máy bay: Bamboo Airways (2,7 triệu đồng một chiều) và Vietnam Airlines (khoảng 1,3 triệu đồng một chiều)
 - Tàu biển: Từ Vũng Tàu (5 tiếng) hoặc cảng Trần Đề (Sóc Trăng) (2 tiếng)
@@ -3199,18 +2297,12 @@
 Lưu ý: giá vé vào cửa và giờ đón khách ở các di tích lịch sử là 7h30 - 11h30 và 14h - 17h trong ngày, kể cả cuối tuần và ngày lễ. Bạn nên đăng ký hoặc đi theo đoàn có thuyết minh viên để được nghe những câu chuyện tại nhà tù năm xưa.
 Đặc sản Hải sản Côn Đảo bao gồm ốc vú nàng, ốc nón, ốc tai tượng, ốc bàn tay, tôm hùm đỏ, tôm mũ ni, cá mú đỏ, mực một nắng và các loại cá biển. Những món hải sản này mang hương vị đặc trưng và tươi ngon của vùng biển Côn Đảo.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>Cà Mau</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Khí hậu Cà Mau quanh năm dễ chịu, nhưng thời điểm lý tưởng du lịch là từ tháng 12 đến tháng 4. Mùa mưa kéo dài từ tháng 5 đến tháng 11. Tháng 7-8 Âm lịch là thời điểm lý tưởng để thưởng thức nhiều đặc sản của Cà Mau.
+  </si>
+  <si>
+    <t>Cà Mau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khí hậu Cà Mau quanh năm dễ chịu, nhưng thời điểm lý tưởng du lịch là từ tháng 12 đến tháng 4. Mùa mưa kéo dài từ tháng 5 đến tháng 11. Tháng 7-8 Âm lịch là thời điểm lý tưởng để thưởng thức nhiều đặc sản của Cà Mau.
 Di chuyển đến Cà Mau có thể thực hiện theo các cách sau:
 - Từ Hà Nội: Chọn chuyến bay tới Cần Thơ (3-4 triệu đồng) và sau đó di chuyển bằng xe ôtô giường nằm (125.000-150.000 đồng).
 - Từ TP HCM: Mua vé xe khách (190.000-200.000 đồng) hoặc tự lái xe (7-8 tiếng).
@@ -3239,10 +2331,1035 @@
 - Bánh tằm dân dã chân chất nhưng có sức thu hút đặc biệt
 - Các món ăn bình dân khác như cá kèo, hàu, chuột đồng chiên sả ớt, chả mực trứng, cháo tống...
 </t>
-        </is>
+  </si>
+</sst>
+</file>
+
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="1" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+  </fonts>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+  </fills>
+  <borders count="1">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="3">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
+</styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr lastClr="000000" val="windowText"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin scaled="1" ang="16200000"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin scaled="1" ang="16200000"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot rev="0" lon="0" lat="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B84"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" tabSelected="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+  </cols>
+  <sheetData>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="541.5">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="567">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="273.75">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="592.5">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="503.25">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="388.5">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="273.75">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="388.5">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="707.25">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="350.25">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="426.75">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="184.5">
+      <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="439.5">
+      <c r="A14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="630.75">
+      <c r="A15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="834.75">
+      <c r="A16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="273.75">
+      <c r="A17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="312">
+      <c r="A18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="503.25">
+      <c r="A19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="A20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="A21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+      <c r="A22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+      <c r="A23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+      <c r="A24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+      <c r="A25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+      <c r="A26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+      <c r="A27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+      <c r="A28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+      <c r="A29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+      <c r="A30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+      <c r="A31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+      <c r="A32" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+      <c r="A33" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+      <c r="A34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+      <c r="A35" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+      <c r="A36" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+      <c r="A37" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+      <c r="A38" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+      <c r="A39" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+      <c r="A40" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+      <c r="A41" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+      <c r="A42" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+      <c r="A43" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+      <c r="A44" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+      <c r="A45" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+      <c r="A46" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+      <c r="A47" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+      <c r="A48" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+      <c r="A49" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+      <c r="A50" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+      <c r="A51" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+      <c r="A52" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+      <c r="A53" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
+      <c r="A54" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
+      <c r="A55" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
+      <c r="A56" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
+      <c r="A57" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
+      <c r="A58" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
+      <c r="A59" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
+      <c r="A60" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
+      <c r="A61" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
+      <c r="A62" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
+      <c r="A63" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
+      <c r="A64" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
+      <c r="A65" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
+      <c r="A66" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
+      <c r="A67" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
+      <c r="A68" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
+      <c r="A69" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
+      <c r="A70" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
+      <c r="A71" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
+      <c r="A72" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
+      <c r="A73" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
+      <c r="A74" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
+      <c r="A75" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
+      <c r="A76" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
+      <c r="A77" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
+      <c r="A78" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
+      <c r="A79" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
+      <c r="A80" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
+      <c r="A81" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
+      <c r="A82" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
+      <c r="A83" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
+      <c r="A84" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>